--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCFF686-757B-45F4-B38E-DD3D39292B8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53EFF22-00F7-4D53-90B9-AB3FEEE0C031}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{D0F2A3A5-137E-4A82-8578-1041C1C6BD28}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{D0F2A3A5-137E-4A82-8578-1041C1C6BD28}">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="152">
   <si>
     <t>行列头两行不会被读取</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,11 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>距离目标多远使用技能
-近战&lt;目标长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否弹道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,6 +670,75 @@
   <si>
     <t>1-以自身
 2-以目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能过程动作的时长，后期在timeline里配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离目标多远使用技能
+近战&lt;目标长
+0-表示不限距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.767,1.333</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8,1.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8667,1.333,1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk4,bk5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk1,bk3,bk5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -924,11 +988,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
     <dxf>
       <font>
         <b val="0"/>
@@ -1502,6 +1569,43 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2275,17 +2379,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AJ34" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
-  <autoFilter ref="C1:AJ34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
-  <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="33"/>
-    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="29"/>
-    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="28"/>
-    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="27"/>
-    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F9482FB-F1A4-4850-86F8-C15BFC778075}" name="表5" displayName="表5" ref="C1:AK34" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+  <autoFilter ref="C1:AK34" xr:uid="{ACA1193D-CE65-4771-A649-26B6E9EA140E}"/>
+  <tableColumns count="35">
+    <tableColumn id="1" xr3:uid="{0E0EE31E-4EF4-47A6-A02C-B14555F7469B}" name="技能ID" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{E1A1EC3B-7958-4D16-B93D-47A83EFFF24F}" name="技能等级" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{F6C3B926-A1B3-4A1C-86C0-13E1D171263F}" name="技能名称" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{BF6A1109-3BD4-42E4-93C8-E96877E4684F}" name="技能描述" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{AD42AAEB-FC8C-4032-8705-5FFB55906D3C}" name="技能图标" dataDxfId="30"/>
+    <tableColumn id="25" xr3:uid="{5EB1F39C-170E-4500-9A1D-EA5FD9D84A16}" name="ACT条动作" dataDxfId="29"/>
+    <tableColumn id="20" xr3:uid="{DF235172-D925-4D3E-866F-35EB36B0A7E1}" name="前摇动作" dataDxfId="28"/>
+    <tableColumn id="26" xr3:uid="{33BA7F53-F2D3-4204-BC87-5E499710AF16}" name="技能动作" dataDxfId="27"/>
+    <tableColumn id="34" xr3:uid="{D79C255C-C536-4BD4-9DD7-4FB6CCABA651}" name="动作时长" dataDxfId="26"/>
     <tableColumn id="33" xr3:uid="{6E7D3F46-4A3D-4D38-B359-FE07A4079767}" name="命中消息点" dataDxfId="25"/>
     <tableColumn id="32" xr3:uid="{38F5469B-B50A-447A-94E2-227AAA95BA4B}" name="被击动作编号" dataDxfId="24"/>
     <tableColumn id="27" xr3:uid="{7B7E6045-E4B4-4249-843F-8B2096C39B45}" name="后摇动作" dataDxfId="23"/>
@@ -2306,8 +2411,8 @@
     <tableColumn id="12" xr3:uid="{1B5EF81A-42C1-4ABA-9344-C6A99BE25752}" name="次数限制" dataDxfId="10"/>
     <tableColumn id="13" xr3:uid="{56EA1AC2-2D75-4ECA-AD42-6DEB09A89621}" name="出手范围" dataDxfId="9"/>
     <tableColumn id="14" xr3:uid="{BA72201D-9EED-4B06-A696-7CF31B0A111F}" name="主目标_x000a_范围类型" dataDxfId="8"/>
-    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{A1D82393-11AC-4336-BF23-F777E5F410C1}" name="主目标类型" dataDxfId="7"/>
+    <tableColumn id="35" xr3:uid="{1706F4DD-D7A0-417E-8EC3-C61A57331DC3}" name="技能_x000a_发起类型" dataDxfId="6"/>
     <tableColumn id="16" xr3:uid="{029C5084-1ADB-4FF0-9EBA-349BC28A742D}" name="技能范围长" dataDxfId="5"/>
     <tableColumn id="17" xr3:uid="{EF7800E1-1840-402E-9BB8-20A4F289955F}" name="技能范围宽" dataDxfId="4"/>
     <tableColumn id="18" xr3:uid="{12954E63-58B7-4619-80B8-FF4A0AD335D8}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
@@ -2582,27 +2687,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AH3" sqref="AH3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.625" style="1"/>
-    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="1" customWidth="1"/>
-    <col min="13" max="20" width="10.625" style="1"/>
-    <col min="21" max="23" width="11.75" style="1" customWidth="1"/>
-    <col min="24" max="30" width="10.625" style="1"/>
-    <col min="31" max="32" width="12.125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.625" style="1"/>
+    <col min="1" max="11" width="10.625" style="1"/>
+    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="1" customWidth="1"/>
+    <col min="14" max="21" width="10.625" style="1"/>
+    <col min="22" max="24" width="11.75" style="1" customWidth="1"/>
+    <col min="25" max="27" width="10.625" style="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="10.625" style="1"/>
+    <col min="33" max="34" width="12.125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2634,85 +2741,88 @@
         <v>73</v>
       </c>
       <c r="K1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>106</v>
-      </c>
       <c r="P1" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R1" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="S1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="AD1" s="15" t="s">
         <v>54</v>
       </c>
       <c r="AE1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="AF1" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AJ1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AK1" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
@@ -2739,83 +2849,86 @@
         <v>81</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>103</v>
+      <c r="P2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="AB2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="AD2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="19" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AK2" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2844,77 +2957,80 @@
         <v>77</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
-        <v>116</v>
-      </c>
+      <c r="P3" s="7"/>
       <c r="Q3" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S3" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="7"/>
+      <c r="W3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="AA3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AB3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AC3" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="AD3" s="7" t="s">
         <v>41</v>
       </c>
       <c r="AE3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2943,77 +3059,80 @@
         <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="7"/>
+      <c r="W4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="Y4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AB4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AC4" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="AD4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="AE4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AG4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AH4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AI4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
@@ -3051,8 +3170,9 @@
       <c r="AH5" s="7"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -3081,37 +3201,37 @@
         <v>71</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
-        <v>117</v>
-      </c>
+      <c r="O6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="7"/>
       <c r="Q6" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="V6" s="7"/>
       <c r="W6" s="7" t="s">
         <v>96</v>
       </c>
@@ -3122,36 +3242,39 @@
         <v>96</v>
       </c>
       <c r="Z6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AC6" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="AD6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="AF6" s="7" t="s">
         <v>96</v>
       </c>
       <c r="AG6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AI6" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C7" s="12">
         <v>101001</v>
       </c>
@@ -3161,33 +3284,41 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="6">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
+      <c r="S7" s="6"/>
       <c r="T7" s="6">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
         <v>0.5</v>
       </c>
-      <c r="U7" s="6">
+      <c r="V7" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>10</v>
       </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
       <c r="X7" s="6">
         <v>0</v>
       </c>
@@ -3195,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="6">
         <v>1</v>
@@ -3203,28 +3334,31 @@
       <c r="AB7" s="6">
         <v>1</v>
       </c>
-      <c r="AC7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="6">
+      <c r="AC7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="21">
         <v>3</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="6">
         <v>2</v>
       </c>
-      <c r="AF7" s="6">
-        <v>0</v>
-      </c>
       <c r="AG7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C8" s="13">
         <v>101002</v>
       </c>
@@ -3234,70 +3368,81 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
-      <c r="S8" s="8">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8">
         <v>2</v>
       </c>
-      <c r="T8" s="8">
-        <v>1</v>
-      </c>
-      <c r="U8" s="6">
+      <c r="U8" s="8">
+        <v>1</v>
+      </c>
+      <c r="V8" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V8" s="8">
+      <c r="W8" s="8">
         <v>20</v>
       </c>
-      <c r="W8" s="8">
-        <v>0</v>
-      </c>
       <c r="X8" s="8">
         <v>0</v>
       </c>
       <c r="Y8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="8">
         <v>1</v>
       </c>
       <c r="AA8" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="8">
         <v>8</v>
       </c>
-      <c r="AB8" s="8">
-        <v>1</v>
-      </c>
       <c r="AC8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="8">
         <v>3</v>
       </c>
       <c r="AE8" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="8">
         <v>4</v>
       </c>
-      <c r="AF8" s="8">
-        <v>0</v>
-      </c>
       <c r="AG8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="8">
         <v>5</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AI8" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C9" s="12">
         <v>101003</v>
       </c>
@@ -3307,70 +3452,81 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6">
+      <c r="S9" s="6"/>
+      <c r="T9" s="6">
         <v>3</v>
       </c>
-      <c r="T9" s="6">
+      <c r="U9" s="6">
         <v>2</v>
       </c>
-      <c r="U9" s="6">
+      <c r="V9" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V9" s="6">
+      <c r="W9" s="6">
         <v>-100</v>
       </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
       <c r="X9" s="6">
         <v>0</v>
       </c>
       <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
         <v>2</v>
       </c>
-      <c r="Z9" s="6">
-        <v>1</v>
-      </c>
       <c r="AA9" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE9" s="21">
         <v>2</v>
       </c>
-      <c r="AD9" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE9" s="6">
+      <c r="AF9" s="6">
         <v>4</v>
       </c>
-      <c r="AF9" s="6">
-        <v>0</v>
-      </c>
       <c r="AG9" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="6">
         <v>5</v>
       </c>
-      <c r="AH9" s="6">
+      <c r="AI9" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C10" s="13">
         <v>101004</v>
       </c>
@@ -3380,70 +3536,81 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="J10" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
-      <c r="S10" s="8">
+      <c r="S10" s="8"/>
+      <c r="T10" s="8">
         <v>4</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
         <v>0.2</v>
       </c>
-      <c r="U10" s="6">
+      <c r="V10" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
       <c r="W10" s="8">
+        <v>0</v>
+      </c>
+      <c r="X10" s="8">
         <v>20</v>
       </c>
-      <c r="X10" s="8">
-        <v>0</v>
-      </c>
       <c r="Y10" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z10" s="8">
-        <v>1</v>
-      </c>
       <c r="AA10" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="8">
         <v>18</v>
       </c>
-      <c r="AB10" s="8">
-        <v>1</v>
-      </c>
       <c r="AC10" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="8">
         <v>3</v>
       </c>
       <c r="AE10" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="8">
         <v>4</v>
       </c>
-      <c r="AF10" s="8">
-        <v>0</v>
-      </c>
       <c r="AG10" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="8">
         <v>5</v>
       </c>
-      <c r="AH10" s="8">
+      <c r="AI10" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C11" s="12">
         <v>102001</v>
       </c>
@@ -3453,33 +3620,41 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="6">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
+      <c r="S11" s="6"/>
       <c r="T11" s="6">
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
         <v>0.5</v>
       </c>
-      <c r="U11" s="6">
+      <c r="V11" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="6">
         <v>10</v>
       </c>
-      <c r="W11" s="6">
-        <v>0</v>
-      </c>
       <c r="X11" s="6">
         <v>0</v>
       </c>
@@ -3487,36 +3662,39 @@
         <v>0</v>
       </c>
       <c r="Z11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="6">
         <v>2</v>
       </c>
-      <c r="AB11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="6">
+      <c r="AC11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="21">
         <v>3</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="6">
         <v>4</v>
       </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
       <c r="AG11" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C12" s="13">
         <v>102002</v>
       </c>
@@ -3526,70 +3704,81 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="J12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
-      <c r="S12" s="8">
+      <c r="S12" s="8"/>
+      <c r="T12" s="8">
         <v>2</v>
       </c>
-      <c r="T12" s="8">
-        <v>1</v>
-      </c>
-      <c r="U12" s="6">
+      <c r="U12" s="8">
+        <v>1</v>
+      </c>
+      <c r="V12" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V12" s="8">
+      <c r="W12" s="8">
         <v>20</v>
       </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
       <c r="X12" s="8">
         <v>0</v>
       </c>
       <c r="Y12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="8">
         <v>1</v>
       </c>
       <c r="AA12" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="8">
         <v>8</v>
       </c>
-      <c r="AB12" s="8">
-        <v>1</v>
-      </c>
       <c r="AC12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="8">
         <v>3</v>
       </c>
       <c r="AE12" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="8">
         <v>4</v>
       </c>
-      <c r="AF12" s="8">
-        <v>0</v>
-      </c>
       <c r="AG12" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="8">
         <v>5</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AI12" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C13" s="12">
         <v>102003</v>
       </c>
@@ -3599,70 +3788,81 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-      <c r="S13" s="6">
+      <c r="S13" s="6"/>
+      <c r="T13" s="6">
         <v>3</v>
       </c>
-      <c r="T13" s="6">
+      <c r="U13" s="6">
         <v>2</v>
       </c>
-      <c r="U13" s="6">
+      <c r="V13" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V13" s="6">
+      <c r="W13" s="6">
         <v>-100</v>
       </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
       <c r="X13" s="6">
         <v>0</v>
       </c>
       <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
         <v>2</v>
       </c>
-      <c r="Z13" s="6">
-        <v>1</v>
-      </c>
       <c r="AA13" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE13" s="21">
         <v>2</v>
       </c>
-      <c r="AD13" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE13" s="6">
+      <c r="AF13" s="6">
         <v>4</v>
       </c>
-      <c r="AF13" s="6">
-        <v>0</v>
-      </c>
       <c r="AG13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="6">
         <v>5</v>
       </c>
-      <c r="AH13" s="6">
+      <c r="AI13" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C14" s="13">
         <v>102004</v>
       </c>
@@ -3672,70 +3872,81 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="J14" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" s="8">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
-      <c r="S14" s="8">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8">
         <v>4</v>
       </c>
-      <c r="T14" s="8">
+      <c r="U14" s="8">
         <v>0.2</v>
       </c>
-      <c r="U14" s="6">
+      <c r="V14" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
       <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="8">
         <v>20</v>
       </c>
-      <c r="X14" s="8">
-        <v>0</v>
-      </c>
       <c r="Y14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z14" s="8">
-        <v>1</v>
-      </c>
       <c r="AA14" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="8">
         <v>18</v>
       </c>
-      <c r="AB14" s="8">
-        <v>1</v>
-      </c>
       <c r="AC14" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="8">
         <v>3</v>
       </c>
       <c r="AE14" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="8">
         <v>4</v>
       </c>
-      <c r="AF14" s="8">
-        <v>0</v>
-      </c>
       <c r="AG14" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="8">
         <v>5</v>
       </c>
-      <c r="AH14" s="8">
+      <c r="AI14" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C15" s="12">
         <v>103001</v>
       </c>
@@ -3745,33 +3956,41 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="6">
-        <v>1</v>
-      </c>
+      <c r="S15" s="6"/>
       <c r="T15" s="6">
+        <v>1</v>
+      </c>
+      <c r="U15" s="6">
         <v>0.5</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V15" s="6">
+      <c r="W15" s="6">
         <v>10</v>
       </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
       <c r="X15" s="6">
         <v>0</v>
       </c>
@@ -3779,36 +3998,39 @@
         <v>0</v>
       </c>
       <c r="Z15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="6">
         <v>11</v>
       </c>
-      <c r="AB15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="6">
+      <c r="AC15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="21">
         <v>3</v>
       </c>
-      <c r="AE15" s="6">
+      <c r="AE15" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="6">
         <v>2</v>
       </c>
-      <c r="AF15" s="6">
-        <v>0</v>
-      </c>
       <c r="AG15" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
+      <c r="AK15" s="6"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C16" s="13">
         <v>103002</v>
       </c>
@@ -3818,70 +4040,81 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="J16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="8">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
-      <c r="S16" s="8">
+      <c r="S16" s="8"/>
+      <c r="T16" s="8">
         <v>2</v>
       </c>
-      <c r="T16" s="8">
-        <v>1</v>
-      </c>
-      <c r="U16" s="6">
+      <c r="U16" s="8">
+        <v>1</v>
+      </c>
+      <c r="V16" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V16" s="8">
+      <c r="W16" s="8">
         <v>20</v>
       </c>
-      <c r="W16" s="8">
-        <v>0</v>
-      </c>
       <c r="X16" s="8">
         <v>0</v>
       </c>
       <c r="Y16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="8">
         <v>1</v>
       </c>
       <c r="AA16" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="8">
         <v>14</v>
       </c>
-      <c r="AB16" s="8">
-        <v>1</v>
-      </c>
       <c r="AC16" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="8">
         <v>3</v>
       </c>
       <c r="AE16" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF16" s="8">
         <v>4</v>
       </c>
-      <c r="AF16" s="8">
-        <v>0</v>
-      </c>
       <c r="AG16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="8">
         <v>5</v>
       </c>
-      <c r="AH16" s="8">
+      <c r="AI16" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C17" s="12">
         <v>103003</v>
       </c>
@@ -3891,70 +4124,81 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="6">
+      <c r="S17" s="6"/>
+      <c r="T17" s="6">
         <v>3</v>
       </c>
-      <c r="T17" s="6">
+      <c r="U17" s="6">
         <v>2</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V17" s="6">
+      <c r="W17" s="6">
         <v>-100</v>
       </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
       <c r="X17" s="6">
         <v>0</v>
       </c>
       <c r="Y17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="6">
         <v>2</v>
       </c>
-      <c r="Z17" s="6">
-        <v>1</v>
-      </c>
       <c r="AA17" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="21">
         <v>2</v>
       </c>
-      <c r="AD17" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE17" s="6">
+      <c r="AF17" s="6">
         <v>4</v>
       </c>
-      <c r="AF17" s="6">
-        <v>0</v>
-      </c>
       <c r="AG17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
         <v>5</v>
       </c>
-      <c r="AH17" s="6">
+      <c r="AI17" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
+      <c r="AK17" s="6"/>
     </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C18" s="13">
         <v>103004</v>
       </c>
@@ -3964,70 +4208,81 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="J18" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="8">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="8">
+      <c r="S18" s="8"/>
+      <c r="T18" s="8">
         <v>4</v>
       </c>
-      <c r="T18" s="8">
+      <c r="U18" s="8">
         <v>0.2</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V18" s="8">
-        <v>0</v>
-      </c>
       <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
         <v>20</v>
       </c>
-      <c r="X18" s="8">
-        <v>0</v>
-      </c>
       <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z18" s="8">
-        <v>1</v>
-      </c>
       <c r="AA18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="8">
         <v>18</v>
       </c>
-      <c r="AB18" s="8">
-        <v>1</v>
-      </c>
       <c r="AC18" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="8">
         <v>3</v>
       </c>
       <c r="AE18" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="8">
         <v>4</v>
       </c>
-      <c r="AF18" s="8">
-        <v>0</v>
-      </c>
       <c r="AG18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="8">
         <v>5</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AI18" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>104001</v>
       </c>
@@ -4037,33 +4292,41 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" s="6">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
-      <c r="S19" s="6">
-        <v>1</v>
-      </c>
+      <c r="S19" s="6"/>
       <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6">
         <v>0.5</v>
       </c>
-      <c r="U19" s="6">
+      <c r="V19" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V19" s="6">
+      <c r="W19" s="6">
         <v>10</v>
       </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
       <c r="X19" s="6">
         <v>0</v>
       </c>
@@ -4071,36 +4334,39 @@
         <v>0</v>
       </c>
       <c r="Z19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="6">
         <v>10</v>
       </c>
-      <c r="AB19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="6">
+      <c r="AC19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="21">
         <v>3</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="6">
         <v>2</v>
       </c>
-      <c r="AF19" s="6">
-        <v>0</v>
-      </c>
       <c r="AG19" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
+      <c r="AK19" s="6"/>
     </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C20" s="13">
         <v>104002</v>
       </c>
@@ -4110,70 +4376,81 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="J20" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="8">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="8">
+      <c r="S20" s="8"/>
+      <c r="T20" s="8">
         <v>2</v>
       </c>
-      <c r="T20" s="8">
-        <v>1</v>
-      </c>
-      <c r="U20" s="6">
+      <c r="U20" s="8">
+        <v>1</v>
+      </c>
+      <c r="V20" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V20" s="8">
+      <c r="W20" s="8">
         <v>20</v>
       </c>
-      <c r="W20" s="8">
-        <v>0</v>
-      </c>
       <c r="X20" s="8">
         <v>0</v>
       </c>
       <c r="Y20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="8">
         <v>1</v>
       </c>
       <c r="AA20" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="8">
         <v>14</v>
       </c>
-      <c r="AB20" s="8">
-        <v>1</v>
-      </c>
       <c r="AC20" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="8">
         <v>3</v>
       </c>
       <c r="AE20" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="8">
         <v>4</v>
       </c>
-      <c r="AF20" s="8">
-        <v>0</v>
-      </c>
       <c r="AG20" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="8">
         <v>5</v>
       </c>
-      <c r="AH20" s="8">
+      <c r="AI20" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
     </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>104003</v>
       </c>
@@ -4183,70 +4460,81 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6">
+      <c r="S21" s="6"/>
+      <c r="T21" s="6">
         <v>3</v>
       </c>
-      <c r="T21" s="6">
+      <c r="U21" s="6">
         <v>2</v>
       </c>
-      <c r="U21" s="6">
+      <c r="V21" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V21" s="6">
+      <c r="W21" s="6">
         <v>-100</v>
       </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
       <c r="X21" s="6">
         <v>0</v>
       </c>
       <c r="Y21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="6">
         <v>2</v>
       </c>
-      <c r="Z21" s="6">
-        <v>1</v>
-      </c>
       <c r="AA21" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="21">
         <v>2</v>
       </c>
-      <c r="AD21" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="6">
+      <c r="AF21" s="6">
         <v>4</v>
       </c>
-      <c r="AF21" s="6">
-        <v>0</v>
-      </c>
       <c r="AG21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="6">
         <v>5</v>
       </c>
-      <c r="AH21" s="6">
+      <c r="AI21" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
+      <c r="AK21" s="6"/>
     </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C22" s="13">
         <v>104004</v>
       </c>
@@ -4256,70 +4544,81 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="J22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="8">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
-      <c r="S22" s="8">
+      <c r="S22" s="8"/>
+      <c r="T22" s="8">
         <v>4</v>
       </c>
-      <c r="T22" s="8">
+      <c r="U22" s="8">
         <v>0.2</v>
       </c>
-      <c r="U22" s="6">
+      <c r="V22" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V22" s="8">
-        <v>0</v>
-      </c>
       <c r="W22" s="8">
+        <v>0</v>
+      </c>
+      <c r="X22" s="8">
         <v>20</v>
       </c>
-      <c r="X22" s="8">
-        <v>0</v>
-      </c>
       <c r="Y22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z22" s="8">
-        <v>1</v>
-      </c>
       <c r="AA22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="8">
         <v>18</v>
       </c>
-      <c r="AB22" s="8">
-        <v>1</v>
-      </c>
       <c r="AC22" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="8">
         <v>3</v>
       </c>
       <c r="AE22" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="8">
         <v>4</v>
       </c>
-      <c r="AF22" s="8">
-        <v>0</v>
-      </c>
       <c r="AG22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="8">
         <v>5</v>
       </c>
-      <c r="AH22" s="8">
+      <c r="AI22" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
     </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>105001</v>
       </c>
@@ -4329,33 +4628,41 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="6">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6">
-        <v>1</v>
-      </c>
+      <c r="S23" s="6"/>
       <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
         <v>0.5</v>
       </c>
-      <c r="U23" s="6">
+      <c r="V23" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V23" s="6">
+      <c r="W23" s="6">
         <v>10</v>
       </c>
-      <c r="W23" s="6">
-        <v>0</v>
-      </c>
       <c r="X23" s="6">
         <v>0</v>
       </c>
@@ -4363,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="6">
         <v>1</v>
@@ -4371,28 +4678,31 @@
       <c r="AB23" s="6">
         <v>1</v>
       </c>
-      <c r="AC23" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="6">
+      <c r="AC23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="21">
         <v>3</v>
       </c>
-      <c r="AE23" s="6">
+      <c r="AE23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="6">
         <v>2</v>
       </c>
-      <c r="AF23" s="6">
-        <v>0</v>
-      </c>
       <c r="AG23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
     </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C24" s="13">
         <v>105002</v>
       </c>
@@ -4402,70 +4712,81 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
+      <c r="J24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="8">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="8">
+      <c r="S24" s="8"/>
+      <c r="T24" s="8">
         <v>2</v>
       </c>
-      <c r="T24" s="8">
-        <v>1</v>
-      </c>
       <c r="U24" s="8">
+        <v>1</v>
+      </c>
+      <c r="V24" s="8">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V24" s="8">
+      <c r="W24" s="8">
         <v>20</v>
       </c>
-      <c r="W24" s="8">
-        <v>0</v>
-      </c>
       <c r="X24" s="8">
         <v>0</v>
       </c>
       <c r="Y24" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="8">
         <v>1</v>
       </c>
       <c r="AA24" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="8">
         <v>8</v>
       </c>
-      <c r="AB24" s="8">
-        <v>1</v>
-      </c>
       <c r="AC24" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="8">
         <v>3</v>
       </c>
       <c r="AE24" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF24" s="8">
         <v>4</v>
       </c>
-      <c r="AF24" s="8">
-        <v>0</v>
-      </c>
       <c r="AG24" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="8">
         <v>5</v>
       </c>
-      <c r="AH24" s="8">
+      <c r="AI24" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
     </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>105003</v>
       </c>
@@ -4475,70 +4796,81 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6">
+      <c r="S25" s="6"/>
+      <c r="T25" s="6">
         <v>3</v>
       </c>
-      <c r="T25" s="6">
+      <c r="U25" s="6">
         <v>2</v>
       </c>
-      <c r="U25" s="6">
+      <c r="V25" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V25" s="6">
+      <c r="W25" s="6">
         <v>-100</v>
       </c>
-      <c r="W25" s="6">
-        <v>0</v>
-      </c>
       <c r="X25" s="6">
         <v>0</v>
       </c>
       <c r="Y25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="6">
         <v>2</v>
       </c>
-      <c r="Z25" s="6">
-        <v>1</v>
-      </c>
       <c r="AA25" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="21">
         <v>2</v>
       </c>
-      <c r="AD25" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE25" s="6">
+      <c r="AF25" s="6">
         <v>4</v>
       </c>
-      <c r="AF25" s="6">
-        <v>0</v>
-      </c>
       <c r="AG25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="6">
         <v>5</v>
       </c>
-      <c r="AH25" s="6">
+      <c r="AI25" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
     </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C26" s="13">
         <v>105004</v>
       </c>
@@ -4548,70 +4880,81 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
+      <c r="J26" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="8">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
-      <c r="S26" s="8">
+      <c r="S26" s="8"/>
+      <c r="T26" s="8">
         <v>4</v>
       </c>
-      <c r="T26" s="8">
+      <c r="U26" s="8">
         <v>0.2</v>
       </c>
-      <c r="U26" s="8">
+      <c r="V26" s="8">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V26" s="8">
-        <v>0</v>
-      </c>
       <c r="W26" s="8">
+        <v>0</v>
+      </c>
+      <c r="X26" s="8">
         <v>20</v>
       </c>
-      <c r="X26" s="8">
-        <v>0</v>
-      </c>
       <c r="Y26" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z26" s="8">
-        <v>1</v>
-      </c>
       <c r="AA26" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="8">
         <v>18</v>
       </c>
-      <c r="AB26" s="8">
-        <v>1</v>
-      </c>
       <c r="AC26" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="8">
         <v>3</v>
       </c>
       <c r="AE26" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="8">
         <v>4</v>
       </c>
-      <c r="AF26" s="8">
-        <v>0</v>
-      </c>
       <c r="AG26" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="8">
         <v>5</v>
       </c>
-      <c r="AH26" s="8">
+      <c r="AI26" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
     </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>106001</v>
       </c>
@@ -4621,33 +4964,41 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6">
-        <v>1</v>
-      </c>
+      <c r="S27" s="6"/>
       <c r="T27" s="6">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6">
         <v>0.5</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V27" s="6">
+      <c r="W27" s="6">
         <v>10</v>
       </c>
-      <c r="W27" s="6">
-        <v>0</v>
-      </c>
       <c r="X27" s="6">
         <v>0</v>
       </c>
@@ -4655,36 +5006,39 @@
         <v>0</v>
       </c>
       <c r="Z27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="6">
         <v>11</v>
       </c>
-      <c r="AB27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="6">
+      <c r="AC27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="21">
         <v>3</v>
       </c>
-      <c r="AE27" s="6">
+      <c r="AE27" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="6">
         <v>2</v>
       </c>
-      <c r="AF27" s="6">
-        <v>0</v>
-      </c>
       <c r="AG27" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
     </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C28" s="13">
         <v>106002</v>
       </c>
@@ -4694,70 +5048,81 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
+      <c r="J28" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="8">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
-      <c r="S28" s="8">
+      <c r="S28" s="8"/>
+      <c r="T28" s="8">
         <v>2</v>
       </c>
-      <c r="T28" s="8">
-        <v>1</v>
-      </c>
-      <c r="U28" s="6">
+      <c r="U28" s="8">
+        <v>1</v>
+      </c>
+      <c r="V28" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V28" s="8">
+      <c r="W28" s="8">
         <v>20</v>
       </c>
-      <c r="W28" s="8">
-        <v>0</v>
-      </c>
       <c r="X28" s="8">
         <v>0</v>
       </c>
       <c r="Y28" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="8">
         <v>1</v>
       </c>
       <c r="AA28" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="8">
         <v>14</v>
       </c>
-      <c r="AB28" s="8">
-        <v>1</v>
-      </c>
       <c r="AC28" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="8">
         <v>3</v>
       </c>
       <c r="AE28" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF28" s="8">
         <v>4</v>
       </c>
-      <c r="AF28" s="8">
-        <v>0</v>
-      </c>
       <c r="AG28" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="8">
         <v>5</v>
       </c>
-      <c r="AH28" s="8">
+      <c r="AI28" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
     </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>106003</v>
       </c>
@@ -4767,70 +5132,81 @@
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6">
+      <c r="S29" s="6"/>
+      <c r="T29" s="6">
         <v>3</v>
       </c>
-      <c r="T29" s="6">
+      <c r="U29" s="6">
         <v>2</v>
       </c>
-      <c r="U29" s="6">
+      <c r="V29" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V29" s="6">
+      <c r="W29" s="6">
         <v>-100</v>
       </c>
-      <c r="W29" s="6">
-        <v>0</v>
-      </c>
       <c r="X29" s="6">
         <v>0</v>
       </c>
       <c r="Y29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="6">
         <v>2</v>
       </c>
-      <c r="Z29" s="6">
-        <v>1</v>
-      </c>
       <c r="AA29" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE29" s="21">
         <v>2</v>
       </c>
-      <c r="AD29" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE29" s="6">
+      <c r="AF29" s="6">
         <v>4</v>
       </c>
-      <c r="AF29" s="6">
-        <v>0</v>
-      </c>
       <c r="AG29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="6">
         <v>5</v>
       </c>
-      <c r="AH29" s="6">
+      <c r="AI29" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
     </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C30" s="13">
         <v>106004</v>
       </c>
@@ -4840,70 +5216,81 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
+      <c r="J30" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K30" s="8">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
-      <c r="S30" s="8">
+      <c r="S30" s="8"/>
+      <c r="T30" s="8">
         <v>4</v>
       </c>
-      <c r="T30" s="8">
+      <c r="U30" s="8">
         <v>0.2</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V30" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V30" s="8">
-        <v>0</v>
-      </c>
       <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
         <v>20</v>
       </c>
-      <c r="X30" s="8">
-        <v>0</v>
-      </c>
       <c r="Y30" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z30" s="8">
-        <v>1</v>
-      </c>
       <c r="AA30" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="8">
         <v>18</v>
       </c>
-      <c r="AB30" s="8">
-        <v>1</v>
-      </c>
       <c r="AC30" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="8">
         <v>3</v>
       </c>
       <c r="AE30" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF30" s="8">
         <v>4</v>
       </c>
-      <c r="AF30" s="8">
-        <v>0</v>
-      </c>
       <c r="AG30" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="8">
         <v>5</v>
       </c>
-      <c r="AH30" s="8">
+      <c r="AI30" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
     </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>107001</v>
       </c>
@@ -4913,33 +5300,41 @@
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="6">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6">
-        <v>1</v>
-      </c>
+      <c r="S31" s="6"/>
       <c r="T31" s="6">
+        <v>1</v>
+      </c>
+      <c r="U31" s="6">
         <v>0.5</v>
       </c>
-      <c r="U31" s="6">
+      <c r="V31" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="V31" s="6">
+      <c r="W31" s="6">
         <v>10</v>
       </c>
-      <c r="W31" s="6">
-        <v>0</v>
-      </c>
       <c r="X31" s="6">
         <v>0</v>
       </c>
@@ -4947,36 +5342,39 @@
         <v>0</v>
       </c>
       <c r="Z31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="6">
         <v>11</v>
       </c>
-      <c r="AB31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="21">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="6">
+      <c r="AC31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="21">
         <v>3</v>
       </c>
-      <c r="AE31" s="6">
+      <c r="AE31" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="6">
         <v>2</v>
       </c>
-      <c r="AF31" s="6">
-        <v>0</v>
-      </c>
       <c r="AG31" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
     </row>
-    <row r="32" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C32" s="13">
         <v>107002</v>
       </c>
@@ -4986,70 +5384,81 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
+      <c r="J32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="8">
+        <v>2.8330000000000002</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
-      <c r="S32" s="8">
+      <c r="S32" s="8"/>
+      <c r="T32" s="8">
         <v>2</v>
       </c>
-      <c r="T32" s="8">
-        <v>1</v>
-      </c>
-      <c r="U32" s="6">
+      <c r="U32" s="8">
+        <v>1</v>
+      </c>
+      <c r="V32" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="V32" s="8">
+      <c r="W32" s="8">
         <v>20</v>
       </c>
-      <c r="W32" s="8">
-        <v>0</v>
-      </c>
       <c r="X32" s="8">
         <v>0</v>
       </c>
       <c r="Y32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="8">
         <v>1</v>
       </c>
       <c r="AA32" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="8">
         <v>14</v>
       </c>
-      <c r="AB32" s="8">
-        <v>1</v>
-      </c>
       <c r="AC32" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="8">
         <v>3</v>
       </c>
       <c r="AE32" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="8">
         <v>4</v>
       </c>
-      <c r="AF32" s="8">
-        <v>0</v>
-      </c>
       <c r="AG32" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="8">
         <v>5</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AI32" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
     </row>
-    <row r="33" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>107003</v>
       </c>
@@ -5059,70 +5468,81 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="J33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K33" s="6">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="6">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6">
         <v>3</v>
       </c>
-      <c r="T33" s="6">
+      <c r="U33" s="6">
         <v>2</v>
       </c>
-      <c r="U33" s="6">
+      <c r="V33" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="V33" s="6">
+      <c r="W33" s="6">
         <v>-100</v>
       </c>
-      <c r="W33" s="6">
-        <v>0</v>
-      </c>
       <c r="X33" s="6">
         <v>0</v>
       </c>
       <c r="Y33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="6">
         <v>2</v>
       </c>
-      <c r="Z33" s="6">
-        <v>1</v>
-      </c>
       <c r="AA33" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AB33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="21">
+        <v>3</v>
+      </c>
+      <c r="AE33" s="21">
         <v>2</v>
       </c>
-      <c r="AD33" s="6">
-        <v>3</v>
-      </c>
-      <c r="AE33" s="6">
+      <c r="AF33" s="6">
         <v>4</v>
       </c>
-      <c r="AF33" s="6">
-        <v>0</v>
-      </c>
       <c r="AG33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
         <v>5</v>
       </c>
-      <c r="AH33" s="6">
+      <c r="AI33" s="6">
         <v>1010011</v>
       </c>
-      <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
     </row>
-    <row r="34" spans="3:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C34" s="13">
         <v>107004</v>
       </c>
@@ -5132,68 +5552,79 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
+      <c r="J34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="8">
+        <v>7.3330000000000002</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="8">
+      <c r="S34" s="8"/>
+      <c r="T34" s="8">
         <v>4</v>
       </c>
-      <c r="T34" s="8">
+      <c r="U34" s="8">
         <v>0.2</v>
       </c>
-      <c r="U34" s="6">
+      <c r="V34" s="6">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>5</v>
       </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
       <c r="W34" s="8">
+        <v>0</v>
+      </c>
+      <c r="X34" s="8">
         <v>20</v>
       </c>
-      <c r="X34" s="8">
-        <v>0</v>
-      </c>
       <c r="Y34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="8">
         <v>1.5</v>
       </c>
-      <c r="Z34" s="8">
-        <v>1</v>
-      </c>
       <c r="AA34" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="8">
         <v>18</v>
       </c>
-      <c r="AB34" s="8">
-        <v>1</v>
-      </c>
       <c r="AC34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD34" s="8">
         <v>3</v>
       </c>
       <c r="AE34" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF34" s="8">
         <v>4</v>
       </c>
-      <c r="AF34" s="8">
-        <v>0</v>
-      </c>
       <c r="AG34" s="8">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="8">
         <v>5</v>
       </c>
-      <c r="AH34" s="8">
+      <c r="AI34" s="8">
         <v>1010011</v>
       </c>
-      <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A71B14A-A294-4CD1-8C84-1F88415963ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFFACF6-84F2-40D9-A73A-52FA14505084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillBase" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>dd</author>
   </authors>
   <commentList>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -230,12 +230,6 @@
       </rPr>
       <t>3-扇形</t>
     </r>
-  </si>
-  <si>
-    <t>0-自身周围
-1-选定空间
-2-友军单体
-3-敌军单体</t>
   </si>
   <si>
     <t>1-以自身
@@ -533,10 +527,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>timeLineID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>表现ID</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -547,6 +537,121 @@
   <si>
     <t>普攻需要配多个
 技能就1个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT特效表现</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>actAnimate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACT特效表现2</t>
+  </si>
+  <si>
+    <t>触发吟唱
+特效配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>吟唱持续
+特效配置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>continueAnimate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act触发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act持续</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>timelineID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>timelineDuration</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>表现持续时间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]number</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010011,1010011</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0-自身周围
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1-选定空间
+(弃用)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2-友军单体
+3-敌军单体</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -818,11 +923,44 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -859,6 +997,66 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -873,9 +1071,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AD28" totalsRowShown="0">
-  <autoFilter ref="C1:AD28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AG28" totalsRowShown="0">
+  <autoFilter ref="C1:AG28" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="备注"/>
@@ -884,6 +1082,8 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="2"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
@@ -902,7 +1102,8 @@
     <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长"/>
     <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽"/>
     <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="0"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="表现持续时间" dataDxfId="0"/>
     <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="技能效果"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
@@ -1169,31 +1370,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.625" style="2"/>
-    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.625" style="2"/>
-    <col min="13" max="15" width="11.75" style="2" customWidth="1"/>
-    <col min="16" max="18" width="10.625" style="2"/>
-    <col min="19" max="19" width="13" style="2" customWidth="1"/>
-    <col min="20" max="20" width="15.125" style="2" customWidth="1"/>
-    <col min="21" max="23" width="10.625" style="2"/>
-    <col min="24" max="25" width="12.125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="15" style="2" customWidth="1"/>
-    <col min="27" max="27" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="10.625" style="2"/>
+    <col min="13" max="13" width="18.75" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="2"/>
+    <col min="15" max="17" width="11.75" style="2" customWidth="1"/>
+    <col min="18" max="20" width="10.625" style="2"/>
+    <col min="21" max="21" width="13" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.125" style="2" customWidth="1"/>
+    <col min="23" max="25" width="10.625" style="2"/>
+    <col min="26" max="27" width="12.125" style="2" customWidth="1"/>
     <col min="28" max="28" width="15" style="2" customWidth="1"/>
-    <col min="29" max="29" width="13" style="2" customWidth="1"/>
-    <col min="30" max="16384" width="10.625" style="2"/>
+    <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="2" customWidth="1"/>
+    <col min="31" max="31" width="15" style="2" customWidth="1"/>
+    <col min="32" max="32" width="13" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="10.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1224,68 +1426,77 @@
       <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AF1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1309,230 +1520,255 @@
       <c r="J2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="U2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X2" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Z2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="AA2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AC2" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AF2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AG2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="21" t="s">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AC3" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AA3" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="S4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V4" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="S4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="12" t="s">
+      <c r="W4" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="X4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="Y4" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="W4" s="12" t="s">
+      <c r="Z4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AC4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1562,89 +1798,101 @@
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="12" t="s">
-        <v>97</v>
-      </c>
       <c r="J6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="O6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>96</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="P6" s="12"/>
       <c r="Q6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>95</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>95</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z6" s="12" t="s">
         <v>95</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD6" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>101001</v>
       </c>
@@ -1652,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -1660,68 +1908,75 @@
         <v>5</v>
       </c>
       <c r="I7" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="13">
-        <v>1</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13" t="e">
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13">
+        <v>5</v>
+      </c>
+      <c r="P7" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="13">
         <v>10</v>
       </c>
-      <c r="P7" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>0</v>
-      </c>
       <c r="R7" s="13">
         <v>0</v>
       </c>
       <c r="S7" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="13">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
+        <v>1</v>
+      </c>
+      <c r="V7" s="13">
         <v>1.5</v>
       </c>
-      <c r="U7" s="13">
-        <v>1</v>
-      </c>
-      <c r="V7" s="19">
+      <c r="W7" s="13">
+        <v>1</v>
+      </c>
+      <c r="X7" s="19">
         <v>3</v>
       </c>
-      <c r="W7" s="19">
-        <v>2</v>
-      </c>
-      <c r="X7" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="13">
-        <v>0</v>
+      <c r="Y7" s="19">
+        <v>2</v>
       </c>
       <c r="Z7" s="13">
         <v>1</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="24">
         <v>1001</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AD7" s="24">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>101002</v>
       </c>
@@ -1735,41 +1990,37 @@
         <v>5</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" s="14">
-        <v>2</v>
-      </c>
-      <c r="M8" s="14">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="N8" s="14">
+        <v>2</v>
+      </c>
+      <c r="O8" s="14">
+        <v>1</v>
+      </c>
+      <c r="P8" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O8" s="14">
+      <c r="Q8" s="14">
         <v>20</v>
       </c>
-      <c r="P8" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>0</v>
-      </c>
       <c r="R8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U8" s="14">
         <v>1</v>
@@ -1778,27 +2029,36 @@
         <v>3</v>
       </c>
       <c r="W8" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X8" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AA8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="14">
         <v>1001</v>
       </c>
-      <c r="AB8" s="14">
+      <c r="AD8" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="8">
         <v>101003</v>
       </c>
@@ -1812,68 +2072,73 @@
         <v>5</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13"/>
-      <c r="L9" s="13">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>3</v>
       </c>
-      <c r="M9" s="13">
+      <c r="O9" s="13">
         <v>10</v>
       </c>
-      <c r="N9" s="13">
+      <c r="P9" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O9" s="13">
+      <c r="Q9" s="13">
         <v>-100</v>
       </c>
-      <c r="P9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0</v>
-      </c>
       <c r="R9" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="13">
+        <v>2</v>
+      </c>
+      <c r="U9" s="13">
+        <v>1</v>
+      </c>
+      <c r="V9" s="13">
         <v>4</v>
       </c>
-      <c r="U9" s="13">
-        <v>1</v>
-      </c>
-      <c r="V9" s="19">
+      <c r="W9" s="13">
+        <v>1</v>
+      </c>
+      <c r="X9" s="19">
         <v>3</v>
       </c>
-      <c r="W9" s="19">
-        <v>2</v>
-      </c>
-      <c r="X9" s="13">
+      <c r="Y9" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="13">
         <v>3</v>
       </c>
-      <c r="Y9" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="13">
-        <v>5</v>
-      </c>
       <c r="AA9" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="13">
         <v>1001</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AD9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="9">
         <v>101004</v>
       </c>
@@ -1887,68 +2152,73 @@
         <v>5</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14">
+        <v>100</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14">
         <v>4</v>
       </c>
-      <c r="M10" s="14">
+      <c r="O10" s="14">
         <v>0.5</v>
       </c>
-      <c r="N10" s="13">
+      <c r="P10" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="O10" s="14">
-        <v>0</v>
-      </c>
-      <c r="P10" s="14">
+      <c r="Q10" s="14">
+        <v>0</v>
+      </c>
+      <c r="R10" s="14">
         <v>20</v>
       </c>
-      <c r="Q10" s="14">
-        <v>0</v>
-      </c>
-      <c r="R10" s="14">
+      <c r="S10" s="14">
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
         <v>1.5</v>
       </c>
-      <c r="S10" s="14">
-        <v>1</v>
-      </c>
-      <c r="T10" s="14">
-        <v>5</v>
-      </c>
       <c r="U10" s="14">
         <v>1</v>
       </c>
       <c r="V10" s="14">
+        <v>5</v>
+      </c>
+      <c r="W10" s="14">
+        <v>1</v>
+      </c>
+      <c r="X10" s="14">
         <v>3</v>
       </c>
-      <c r="W10" s="14">
-        <v>2</v>
-      </c>
-      <c r="X10" s="14">
-        <v>2</v>
-      </c>
       <c r="Y10" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z10" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA10" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="13">
         <v>1001</v>
       </c>
-      <c r="AB10" s="14">
+      <c r="AD10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="8">
         <v>102001</v>
       </c>
@@ -1956,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
@@ -1964,70 +2234,75 @@
         <v>5</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13">
-        <v>5</v>
-      </c>
       <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13">
+        <v>5</v>
+      </c>
+      <c r="P11" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O11" s="13">
+      <c r="Q11" s="13">
         <v>10</v>
       </c>
-      <c r="P11" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
       <c r="R11" s="13">
         <v>0</v>
       </c>
       <c r="S11" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
+        <v>1</v>
+      </c>
+      <c r="V11" s="13">
         <v>1.5</v>
       </c>
-      <c r="U11" s="13">
-        <v>1</v>
-      </c>
-      <c r="V11" s="19">
+      <c r="W11" s="13">
+        <v>1</v>
+      </c>
+      <c r="X11" s="19">
         <v>3</v>
       </c>
-      <c r="W11" s="19">
-        <v>2</v>
-      </c>
-      <c r="X11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="13">
-        <v>0</v>
+      <c r="Y11" s="19">
+        <v>2</v>
       </c>
       <c r="Z11" s="13">
         <v>1</v>
       </c>
-      <c r="AA11" s="24" t="s">
-        <v>129</v>
+      <c r="AA11" s="13">
+        <v>0</v>
       </c>
       <c r="AB11" s="13">
-        <v>1010011</v>
-      </c>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD11" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>102002</v>
       </c>
@@ -2041,41 +2316,39 @@
         <v>5</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" s="14">
-        <v>2</v>
-      </c>
-      <c r="M12" s="14">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="N12" s="14">
+        <v>2</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O12" s="14">
+      <c r="Q12" s="14">
         <v>20</v>
       </c>
-      <c r="P12" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>0</v>
-      </c>
       <c r="R12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U12" s="14">
         <v>1</v>
@@ -2084,27 +2357,36 @@
         <v>3</v>
       </c>
       <c r="W12" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="13">
         <v>1003</v>
       </c>
-      <c r="AB12" s="14">
+      <c r="AD12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="14">
         <v>1010011</v>
       </c>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="8">
         <v>102003</v>
       </c>
@@ -2118,68 +2400,73 @@
         <v>5</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" s="13"/>
-      <c r="L13" s="13">
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13">
         <v>3</v>
       </c>
-      <c r="M13" s="13">
+      <c r="O13" s="13">
         <v>10</v>
       </c>
-      <c r="N13" s="13">
+      <c r="P13" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O13" s="13">
+      <c r="Q13" s="13">
         <v>-100</v>
       </c>
-      <c r="P13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <v>0</v>
-      </c>
       <c r="R13" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="13">
+        <v>2</v>
+      </c>
+      <c r="U13" s="13">
+        <v>1</v>
+      </c>
+      <c r="V13" s="13">
         <v>4</v>
       </c>
-      <c r="U13" s="13">
-        <v>1</v>
-      </c>
-      <c r="V13" s="19">
+      <c r="W13" s="13">
+        <v>1</v>
+      </c>
+      <c r="X13" s="19">
         <v>3</v>
       </c>
-      <c r="W13" s="19">
-        <v>2</v>
-      </c>
-      <c r="X13" s="13">
+      <c r="Y13" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="13">
         <v>3</v>
       </c>
-      <c r="Y13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="13">
-        <v>5</v>
-      </c>
       <c r="AA13" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="13">
         <v>1001</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AD13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>102004</v>
       </c>
@@ -2193,68 +2480,73 @@
         <v>5</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14">
+        <v>100</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14">
         <v>4</v>
       </c>
-      <c r="M14" s="14">
+      <c r="O14" s="14">
         <v>0.5</v>
       </c>
-      <c r="N14" s="13">
+      <c r="P14" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
+      <c r="Q14" s="14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="14">
         <v>20</v>
       </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
+      <c r="S14" s="14">
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
         <v>1.5</v>
       </c>
-      <c r="S14" s="14">
-        <v>1</v>
-      </c>
-      <c r="T14" s="14">
-        <v>5</v>
-      </c>
       <c r="U14" s="14">
         <v>1</v>
       </c>
       <c r="V14" s="14">
+        <v>5</v>
+      </c>
+      <c r="W14" s="14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14">
         <v>3</v>
       </c>
-      <c r="W14" s="14">
-        <v>2</v>
-      </c>
-      <c r="X14" s="14">
-        <v>2</v>
-      </c>
       <c r="Y14" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC14" s="13">
         <v>1001</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AD14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="8">
         <v>103001</v>
       </c>
@@ -2262,7 +2554,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -2270,68 +2562,73 @@
         <v>5</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K15" s="13"/>
-      <c r="L15" s="13">
-        <v>1</v>
-      </c>
-      <c r="M15" s="13">
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13">
+        <v>1</v>
+      </c>
+      <c r="O15" s="13">
         <v>1.25</v>
       </c>
-      <c r="N15" s="13">
+      <c r="P15" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.8</v>
       </c>
-      <c r="O15" s="13">
+      <c r="Q15" s="13">
         <v>10</v>
       </c>
-      <c r="P15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="13">
-        <v>0</v>
-      </c>
       <c r="R15" s="13">
         <v>0</v>
       </c>
       <c r="S15" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="13">
+        <v>1</v>
+      </c>
+      <c r="V15" s="13">
         <v>4</v>
       </c>
-      <c r="U15" s="13">
-        <v>1</v>
-      </c>
-      <c r="V15" s="19">
+      <c r="W15" s="13">
+        <v>1</v>
+      </c>
+      <c r="X15" s="19">
         <v>3</v>
       </c>
-      <c r="W15" s="19">
-        <v>2</v>
-      </c>
-      <c r="X15" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>0</v>
+      <c r="Y15" s="19">
+        <v>2</v>
       </c>
       <c r="Z15" s="13">
         <v>1</v>
       </c>
       <c r="AA15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="13">
         <v>1001</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AD15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>103002</v>
       </c>
@@ -2345,68 +2642,73 @@
         <v>5</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="13"/>
-      <c r="L16" s="14">
-        <v>2</v>
-      </c>
-      <c r="M16" s="14">
-        <v>1</v>
-      </c>
-      <c r="N16" s="13">
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14">
+        <v>2</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O16" s="14">
+      <c r="Q16" s="14">
         <v>20</v>
       </c>
-      <c r="P16" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="14">
-        <v>0</v>
-      </c>
       <c r="R16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="14">
+        <v>1</v>
+      </c>
+      <c r="U16" s="14">
+        <v>1</v>
+      </c>
+      <c r="V16" s="14">
         <v>6</v>
       </c>
-      <c r="U16" s="14">
-        <v>1</v>
-      </c>
-      <c r="V16" s="14">
-        <v>1</v>
-      </c>
       <c r="W16" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" s="14">
         <v>3</v>
       </c>
       <c r="Y16" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA16" s="13">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC16" s="13">
         <v>1001</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AD16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
     </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="8">
         <v>103003</v>
       </c>
@@ -2420,68 +2722,73 @@
         <v>5</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K17" s="13"/>
-      <c r="L17" s="13">
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13">
         <v>3</v>
       </c>
-      <c r="M17" s="13">
+      <c r="O17" s="13">
         <v>10</v>
       </c>
-      <c r="N17" s="13">
+      <c r="P17" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O17" s="13">
+      <c r="Q17" s="13">
         <v>-100</v>
       </c>
-      <c r="P17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="13">
-        <v>0</v>
-      </c>
       <c r="R17" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S17" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="13">
+        <v>2</v>
+      </c>
+      <c r="U17" s="13">
+        <v>1</v>
+      </c>
+      <c r="V17" s="13">
         <v>6</v>
       </c>
-      <c r="U17" s="13">
-        <v>1</v>
-      </c>
-      <c r="V17" s="19">
+      <c r="W17" s="13">
+        <v>1</v>
+      </c>
+      <c r="X17" s="19">
         <v>3</v>
       </c>
-      <c r="W17" s="19">
-        <v>2</v>
-      </c>
-      <c r="X17" s="13">
+      <c r="Y17" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="13">
         <v>3</v>
       </c>
-      <c r="Y17" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="13">
-        <v>5</v>
-      </c>
       <c r="AA17" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC17" s="13">
         <v>1001</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AD17" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>103004</v>
       </c>
@@ -2495,68 +2802,73 @@
         <v>5</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14">
+        <v>100</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14">
         <v>4</v>
       </c>
-      <c r="M18" s="14">
+      <c r="O18" s="14">
         <v>0.25</v>
       </c>
-      <c r="N18" s="13">
+      <c r="P18" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="O18" s="14">
-        <v>0</v>
-      </c>
-      <c r="P18" s="14">
+      <c r="Q18" s="14">
+        <v>0</v>
+      </c>
+      <c r="R18" s="14">
         <v>20</v>
       </c>
-      <c r="Q18" s="14">
-        <v>0</v>
-      </c>
-      <c r="R18" s="14">
+      <c r="S18" s="14">
+        <v>0</v>
+      </c>
+      <c r="T18" s="14">
         <v>1.5</v>
       </c>
-      <c r="S18" s="14">
-        <v>1</v>
-      </c>
-      <c r="T18" s="14">
+      <c r="U18" s="14">
+        <v>1</v>
+      </c>
+      <c r="V18" s="14">
         <v>8</v>
       </c>
-      <c r="U18" s="14">
-        <v>1</v>
-      </c>
-      <c r="V18" s="14">
+      <c r="W18" s="14">
+        <v>1</v>
+      </c>
+      <c r="X18" s="14">
         <v>3</v>
       </c>
-      <c r="W18" s="14">
-        <v>2</v>
-      </c>
-      <c r="X18" s="14">
+      <c r="Y18" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="14">
         <v>4</v>
       </c>
-      <c r="Y18" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="13">
         <v>1001</v>
       </c>
-      <c r="AB18" s="14">
+      <c r="AD18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="8">
         <v>104001</v>
       </c>
@@ -2564,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -2572,68 +2884,73 @@
         <v>5</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="13">
-        <v>1</v>
-      </c>
-      <c r="M19" s="13">
-        <v>2</v>
-      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="13">
+        <v>1</v>
+      </c>
+      <c r="O19" s="13">
+        <v>2</v>
+      </c>
+      <c r="P19" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.5</v>
       </c>
-      <c r="O19" s="13">
+      <c r="Q19" s="13">
         <v>10</v>
       </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>0</v>
-      </c>
       <c r="R19" s="13">
         <v>0</v>
       </c>
       <c r="S19" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="13">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>1</v>
+      </c>
+      <c r="V19" s="13">
         <v>4</v>
       </c>
-      <c r="U19" s="13">
-        <v>1</v>
-      </c>
-      <c r="V19" s="19">
+      <c r="W19" s="13">
+        <v>1</v>
+      </c>
+      <c r="X19" s="19">
         <v>3</v>
       </c>
-      <c r="W19" s="19">
-        <v>2</v>
-      </c>
-      <c r="X19" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>0</v>
+      <c r="Y19" s="19">
+        <v>2</v>
       </c>
       <c r="Z19" s="13">
         <v>1</v>
       </c>
       <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="13">
         <v>1001</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AD19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
     </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>104002</v>
       </c>
@@ -2647,68 +2964,73 @@
         <v>5</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="L20" s="14">
-        <v>2</v>
-      </c>
-      <c r="M20" s="14">
-        <v>1</v>
-      </c>
-      <c r="N20" s="13">
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14">
+        <v>2</v>
+      </c>
+      <c r="O20" s="14">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O20" s="14">
+      <c r="Q20" s="14">
         <v>20</v>
       </c>
-      <c r="P20" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="14">
-        <v>0</v>
-      </c>
       <c r="R20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="14">
+        <v>1</v>
+      </c>
+      <c r="U20" s="14">
+        <v>1</v>
+      </c>
+      <c r="V20" s="14">
         <v>4</v>
       </c>
-      <c r="U20" s="14">
-        <v>1</v>
-      </c>
-      <c r="V20" s="14">
+      <c r="W20" s="14">
+        <v>1</v>
+      </c>
+      <c r="X20" s="14">
         <v>3</v>
       </c>
-      <c r="W20" s="14">
-        <v>2</v>
-      </c>
-      <c r="X20" s="14">
-        <v>2</v>
-      </c>
       <c r="Y20" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="13">
         <v>1001</v>
       </c>
-      <c r="AB20" s="14">
+      <c r="AD20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
         <v>104003</v>
       </c>
@@ -2722,68 +3044,73 @@
         <v>5</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" s="13"/>
-      <c r="L21" s="13">
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13">
         <v>3</v>
       </c>
-      <c r="M21" s="13">
+      <c r="O21" s="13">
         <v>10</v>
       </c>
-      <c r="N21" s="13">
+      <c r="P21" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.1</v>
       </c>
-      <c r="O21" s="13">
+      <c r="Q21" s="13">
         <v>-100</v>
       </c>
-      <c r="P21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>0</v>
-      </c>
       <c r="R21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="13">
+        <v>2</v>
+      </c>
+      <c r="U21" s="13">
+        <v>1</v>
+      </c>
+      <c r="V21" s="13">
         <v>6</v>
       </c>
-      <c r="U21" s="13">
-        <v>1</v>
-      </c>
-      <c r="V21" s="19">
+      <c r="W21" s="13">
+        <v>1</v>
+      </c>
+      <c r="X21" s="19">
         <v>3</v>
       </c>
-      <c r="W21" s="19">
-        <v>2</v>
-      </c>
-      <c r="X21" s="13">
+      <c r="Y21" s="19">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="13">
         <v>3</v>
       </c>
-      <c r="Y21" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="13">
-        <v>5</v>
-      </c>
       <c r="AA21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="13">
         <v>1001</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AD21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="13">
         <v>1010013</v>
       </c>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>104004</v>
       </c>
@@ -2797,68 +3124,73 @@
         <v>5</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14">
+        <v>100</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14">
         <v>4</v>
       </c>
-      <c r="M22" s="14">
+      <c r="O22" s="14">
         <v>0.25</v>
       </c>
-      <c r="N22" s="13">
+      <c r="P22" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>4</v>
       </c>
-      <c r="O22" s="14">
-        <v>0</v>
-      </c>
-      <c r="P22" s="14">
+      <c r="Q22" s="14">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
         <v>20</v>
       </c>
-      <c r="Q22" s="14">
-        <v>0</v>
-      </c>
-      <c r="R22" s="14">
+      <c r="S22" s="14">
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
         <v>1.5</v>
       </c>
-      <c r="S22" s="14">
-        <v>1</v>
-      </c>
-      <c r="T22" s="14">
+      <c r="U22" s="14">
+        <v>1</v>
+      </c>
+      <c r="V22" s="14">
         <v>8</v>
       </c>
-      <c r="U22" s="14">
-        <v>1</v>
-      </c>
-      <c r="V22" s="14">
+      <c r="W22" s="14">
+        <v>1</v>
+      </c>
+      <c r="X22" s="14">
         <v>3</v>
       </c>
-      <c r="W22" s="14">
-        <v>2</v>
-      </c>
-      <c r="X22" s="14">
+      <c r="Y22" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="14">
         <v>4</v>
       </c>
-      <c r="Y22" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="13">
         <v>1001</v>
       </c>
-      <c r="AB22" s="14">
+      <c r="AD22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="14">
         <v>1010014</v>
       </c>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
         <v>105001</v>
       </c>
@@ -2866,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -2874,70 +3206,75 @@
         <v>5</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L23" s="13">
-        <v>1</v>
-      </c>
-      <c r="M23" s="13">
-        <v>5</v>
-      </c>
       <c r="N23" s="13">
+        <v>1</v>
+      </c>
+      <c r="O23" s="13">
+        <v>5</v>
+      </c>
+      <c r="P23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O23" s="13">
+      <c r="Q23" s="13">
         <v>10</v>
       </c>
-      <c r="P23" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>0</v>
-      </c>
       <c r="R23" s="13">
         <v>0</v>
       </c>
       <c r="S23" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>1</v>
+      </c>
+      <c r="V23" s="13">
         <v>1.5</v>
       </c>
-      <c r="U23" s="13">
-        <v>1</v>
-      </c>
-      <c r="V23" s="19">
+      <c r="W23" s="13">
+        <v>1</v>
+      </c>
+      <c r="X23" s="19">
         <v>3</v>
       </c>
-      <c r="W23" s="19">
-        <v>2</v>
-      </c>
-      <c r="X23" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="13">
-        <v>0</v>
+      <c r="Y23" s="19">
+        <v>2</v>
       </c>
       <c r="Z23" s="13">
         <v>1</v>
       </c>
       <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="13">
         <v>1001</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AD23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>105002</v>
       </c>
@@ -2951,70 +3288,75 @@
         <v>5</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="14">
-        <v>2</v>
-      </c>
-      <c r="M24" s="14">
-        <v>1</v>
-      </c>
       <c r="N24" s="14">
+        <v>2</v>
+      </c>
+      <c r="O24" s="14">
+        <v>1</v>
+      </c>
+      <c r="P24" s="14">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O24" s="14">
+      <c r="Q24" s="14">
         <v>20</v>
       </c>
-      <c r="P24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>0</v>
-      </c>
       <c r="R24" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="14">
+        <v>1</v>
+      </c>
+      <c r="U24" s="14">
+        <v>1</v>
+      </c>
+      <c r="V24" s="14">
         <v>1.5</v>
       </c>
-      <c r="U24" s="14">
-        <v>1</v>
-      </c>
-      <c r="V24" s="14">
+      <c r="W24" s="14">
+        <v>1</v>
+      </c>
+      <c r="X24" s="14">
         <v>3</v>
       </c>
-      <c r="W24" s="14">
-        <v>2</v>
-      </c>
-      <c r="X24" s="14">
+      <c r="Y24" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="14">
         <v>2.5</v>
       </c>
-      <c r="Y24" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC24" s="13">
         <v>1001</v>
       </c>
-      <c r="AB24" s="14">
+      <c r="AD24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
+      <c r="AF24" s="14"/>
+      <c r="AG24" s="14"/>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
         <v>106001</v>
       </c>
@@ -3022,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -3030,70 +3372,75 @@
         <v>5</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J25" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K25" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1</v>
-      </c>
-      <c r="M25" s="13">
-        <v>5</v>
-      </c>
       <c r="N25" s="13">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13">
+        <v>5</v>
+      </c>
+      <c r="P25" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O25" s="13">
+      <c r="Q25" s="13">
         <v>10</v>
       </c>
-      <c r="P25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>0</v>
-      </c>
       <c r="R25" s="13">
         <v>0</v>
       </c>
       <c r="S25" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>1</v>
+      </c>
+      <c r="V25" s="13">
         <v>1.5</v>
       </c>
-      <c r="U25" s="13">
-        <v>1</v>
-      </c>
-      <c r="V25" s="19">
+      <c r="W25" s="13">
+        <v>1</v>
+      </c>
+      <c r="X25" s="19">
         <v>3</v>
       </c>
-      <c r="W25" s="19">
-        <v>2</v>
-      </c>
-      <c r="X25" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>0</v>
+      <c r="Y25" s="19">
+        <v>2</v>
       </c>
       <c r="Z25" s="13">
         <v>1</v>
       </c>
       <c r="AA25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="13">
         <v>1001</v>
       </c>
-      <c r="AB25" s="13">
+      <c r="AD25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
     </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>106002</v>
       </c>
@@ -3107,70 +3454,75 @@
         <v>5</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K26" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="14">
-        <v>2</v>
-      </c>
-      <c r="M26" s="14">
-        <v>1</v>
-      </c>
-      <c r="N26" s="13">
+      <c r="N26" s="14">
+        <v>2</v>
+      </c>
+      <c r="O26" s="14">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O26" s="14">
+      <c r="Q26" s="14">
         <v>20</v>
       </c>
-      <c r="P26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="14">
-        <v>0</v>
-      </c>
       <c r="R26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="14">
+        <v>1</v>
+      </c>
+      <c r="U26" s="14">
+        <v>1</v>
+      </c>
+      <c r="V26" s="14">
         <v>1.5</v>
       </c>
-      <c r="U26" s="14">
-        <v>1</v>
-      </c>
-      <c r="V26" s="14">
+      <c r="W26" s="14">
+        <v>1</v>
+      </c>
+      <c r="X26" s="14">
         <v>3</v>
       </c>
-      <c r="W26" s="14">
-        <v>2</v>
-      </c>
-      <c r="X26" s="14">
+      <c r="Y26" s="14">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="14">
         <v>2.5</v>
       </c>
-      <c r="Y26" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC26" s="13">
         <v>1001</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AD26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
+      <c r="AF26" s="14"/>
+      <c r="AG26" s="14"/>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
         <v>107001</v>
       </c>
@@ -3178,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="13"/>
@@ -3186,70 +3538,75 @@
         <v>5</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K27" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1</v>
-      </c>
-      <c r="M27" s="13">
-        <v>5</v>
-      </c>
       <c r="N27" s="13">
+        <v>1</v>
+      </c>
+      <c r="O27" s="13">
+        <v>5</v>
+      </c>
+      <c r="P27" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>0.2</v>
       </c>
-      <c r="O27" s="13">
+      <c r="Q27" s="13">
         <v>10</v>
       </c>
-      <c r="P27" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>0</v>
-      </c>
       <c r="R27" s="13">
         <v>0</v>
       </c>
       <c r="S27" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>1</v>
+      </c>
+      <c r="V27" s="13">
         <v>4</v>
       </c>
-      <c r="U27" s="13">
-        <v>1</v>
-      </c>
-      <c r="V27" s="19">
+      <c r="W27" s="13">
+        <v>1</v>
+      </c>
+      <c r="X27" s="19">
         <v>3</v>
       </c>
-      <c r="W27" s="19">
-        <v>2</v>
-      </c>
-      <c r="X27" s="13">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="13">
-        <v>0</v>
+      <c r="Y27" s="19">
+        <v>2</v>
       </c>
       <c r="Z27" s="13">
         <v>1</v>
       </c>
       <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13">
         <v>1001</v>
       </c>
-      <c r="AB27" s="13">
+      <c r="AD27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="13">
         <v>1010011</v>
       </c>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>107002</v>
       </c>
@@ -3263,76 +3620,81 @@
         <v>5</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J28" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="K28" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="14">
-        <v>2</v>
-      </c>
-      <c r="M28" s="14">
-        <v>1</v>
-      </c>
-      <c r="N28" s="13">
+      <c r="N28" s="14">
+        <v>2</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1</v>
+      </c>
+      <c r="P28" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>1</v>
       </c>
-      <c r="O28" s="14">
+      <c r="Q28" s="14">
         <v>20</v>
       </c>
-      <c r="P28" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="14">
-        <v>0</v>
-      </c>
       <c r="R28" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="14">
+        <v>1</v>
+      </c>
+      <c r="U28" s="14">
+        <v>1</v>
+      </c>
+      <c r="V28" s="14">
         <v>4</v>
       </c>
-      <c r="U28" s="14">
-        <v>1</v>
-      </c>
-      <c r="V28" s="14">
+      <c r="W28" s="14">
+        <v>1</v>
+      </c>
+      <c r="X28" s="14">
         <v>3</v>
       </c>
-      <c r="W28" s="14">
-        <v>2</v>
-      </c>
-      <c r="X28" s="14">
-        <v>2</v>
-      </c>
       <c r="Y28" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA28" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC28" s="13">
         <v>1001</v>
       </c>
-      <c r="AB28" s="14">
+      <c r="AD28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="14">
         <v>1010012</v>
       </c>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
+      <c r="AF28" s="14"/>
+      <c r="AG28" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/config/excel/SkillBase.xlsx
+++ b/config/excel/SkillBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EastEden\excel\trunk\global\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19523D5-A895-4C81-8064-E5BB2989FC1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C22B91C-7466-45DF-AA83-6AA7F2394BD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="249">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -163,13 +163,6 @@
   </si>
   <si>
     <t>配置箭头指向还是抛物线指向</t>
-  </si>
-  <si>
-    <t>施法后
-速度条
-1表示整个条
-%条/秒
-参数&gt;0</t>
   </si>
   <si>
     <t>增加：&gt;0
@@ -478,10 +471,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>20011,20012</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>技能范围</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -501,31 +490,9 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥义技能</t>
-  </si>
-  <si>
-    <t>奥义技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗技能1</t>
   </si>
   <si>
-    <t>战斗技能1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗技能2</t>
-  </si>
-  <si>
-    <t>战斗技能2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>默认文字</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -558,23 +525,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>直线(中)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>直线(小)</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>对选定范围内的敌人造成x%时属性伤害，若造成击杀，则提升自身COM条进度y%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>【拉条】选定单体友军，提升COM条进度x%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标及其直线范围内的目标造成x%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续20秒。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -776,15 +727,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1-普通攻击
-2-一般技能
-3-奥义技能
-4-残响技能
-5-被动技能
-6-引导技能</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>决定被动技能在哪些情况下触发
 仅被动技能生效
 被动技能生效会播timeline的表演
@@ -792,55 +734,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>选定范围内的单体友军，为其生成【护盾】，持续40秒。【护盾】可根据施法者生命上限15%抵消受到的伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>targetLength</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一个【石柱】，攻击范围内目标，对其造成200%地属性伤害。后续产生持续性的地属性伤害效果(间隔3秒，伤害根据瓦尔基里攻击100%+100)，持续45秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对单体目标造成3段火属性伤害。第1段90%伤害，第2段90%伤害，第3段120%伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定的目标造成100%+200伤害，附带【击退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，并对其半径5米范围内敌人造成3*80%空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>选定敌方单体目标，并对其半径8米范围内的敌人造成150%伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成4*120%地属性伤害。同时自身获得【再生】效果，每5秒回复自身3%生命，持续50秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成4*120%火属性伤害。同时对目标附加【破甲】效果，使其防御降低50%，持续60秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的目标造成360%空属性伤害。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定目标造成100%+200伤害，并有50%概率触发【打退】效果，使其COM条减少35%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的敌人造成240%时属性伤害，若造成击杀，则提升自身COM条进度35%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>【行动提前】选定单体友军，提升COM条进度50%。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -851,7 +745,323 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1-选定目标
+    <t>友方小圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗MP</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦尔基里-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>男主-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方小圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动速度描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>speedDesc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>中速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>友方自身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅林-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方大圆</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用奥义时，ACT时间增加3秒，奥义伤害提升50%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>atbSpeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-天赋A1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛基-天赋B1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士意志</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>誓言之盾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判之碑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说之剑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣光之刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运之刃</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣火裁决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>末日审判</t>
+  </si>
+  <si>
+    <t>巫女预言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>占星之歌</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>湮灭黑洞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星火雨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓光线</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>记忆重创</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空旅行</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>时光魅影</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士美德</t>
+  </si>
+  <si>
+    <t>安魂之言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆命之轮</t>
+  </si>
+  <si>
+    <t>烈焰标记</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>无限禁制</t>
+  </si>
+  <si>
+    <t>吞噬之影</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由之翼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>丧钟鸣音</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量达到50%时，分裂成5个小史莱姆国王</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-普通攻击
+2-一般技能
+3-奥义技能
+4-被动技能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011,20012</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_chufa_shilaimu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fx_time_wait_shilaimu</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法后
+速度条
+1表示整个条
+%条/秒
+参数&gt;0
+参数=0表示瞬满,没有吟唱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞬间行动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤技能</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序写死的50%血量释放技能，在COM过程中瞬间触发，ACT过程中要等本次行动结束</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成100%+200伤害，附带【打断】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>为选定友军生成【护盾】，持续40秒。【护盾】根据施法者生命上限15%抵消受到的伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤【石柱】，对范围内目标造成200%地属性伤害。【石柱】存在期间，每3秒产生瓦尔基里攻击100%+100地属性伤害效果，持续45秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成4*120%地属性伤害。自身获得【再生】效果，每5秒回复3%生命，持续50秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成3段火属性伤害。第1段90%伤害，第2段90%伤害，第3段120%伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成伤害。第1段40%+80伤害，第2段60%+120伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成100%+200伤害，附带【击退】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内敌人造成3*80%空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内目标造成360%空属性伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成100%+200伤害，并有50%概率触发【打退】效果，使其行动条减少35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【行动提前】选定单体友军，提升行动条进度50%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成360%时属性伤害。自身获得【加速】效果，行动速度提升20%，持续30秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内敌人造成240%时属性伤害。若造成击杀，则提升自身行动条进度35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内的敌人造成150%伤害，并将敌人【聚拢】。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>向目标移动，对其造成4*80%火属性伤害。自身生成【烈焰光环】，对5米内的敌方每3秒造成1次攻击*100%+200火属性伤害，持续18秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成600%火属性伤害。同时附加【破甲】效果，使其防御降低50%，持续60秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用【誓言之盾】时，传送至友军身旁，对周围3米内所有友军生成【护盾】效果。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动经过【审判之碑】1米范围内时，【审判之碑】的技能CD重置</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【命运之刃】使用后，【嘲讽】自身周围3米范围内的敌方目标，使其在接下来的20秒内，只能使用普通攻击。同时自身获得【烈焰铠甲】效果，持续20秒，期间火抗提升50%，自身受到伤害降低30%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【圣火裁决】使用时，对受击目标产生【烈焰标记】，持续期间每次受到【烈焰光环】的攻击都会附加其生命上限2%的伤害。（标记持续30秒）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>【湮灭黑洞】使用时，将选定范围内的敌人【聚拢】</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用【时空旅行】时，自身行动条进度同时提升35%。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-仅选定目标
 2-友军(除目标)
 3-所有友军
 4-敌军(除目标)
@@ -860,159 +1070,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>使用战技1时，传送至友军身旁，对周围3米内所有友军生成【护盾】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>友方小圆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动经过【石柱】1米范围内时，战技2技能CD重置</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗MP</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对选定范围内的目标造成4*80%火属性伤害。并在自身周围生成【烈焰光环】环绕自身，对半径5米内的敌方造成持续性的火属性伤害(间隔3秒，伤害根据男主攻击%)，持续18秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-天赋A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-天赋A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦尔基里-天赋B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>男主-天赋B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方小圆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>战技1使用后，【嘲讽】自身周围3米范围内的敌方目标，使其在接下来的20秒内，只能使用普通攻击攻击自身。同时自身获得【烈焰铠甲】效果，持续20秒，期间火抗提升50%，自身受到伤害降低30%。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，对选定的目标造成2段伤害，第1段40%+80伤害，第2段60%+120伤害并附带【击退】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>战技2使用时，对受击目标产生【烈焰标记】，持续期间每次受到【烈焰光环】的攻击都会附加其生命上限2%的伤害。（标记持续30秒）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动速度描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>speedDesc</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢速行动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>中速行动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速行动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高速行动</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>对选定范围内的目标造成360%时属性伤害。同时自身获得【加速】效果，自身COM速度提升20%，持续30秒。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>友方自身</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-天赋A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅林-天赋B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>天赋技B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方大圆</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用奥义时，ACT时间增加3秒，奥义伤害提升50%</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>战技2使用时，将选定范围内的敌人【聚拢】</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>atbSpeed</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动至目标附近，并对选定目标造成100%+200伤害，附带【打断】效果。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛基-天赋A1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛基-天赋B1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击暴击时，可额外【追加】一次普通攻击。</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用战技2时，自身COM进度同时提升35%。</t>
+    <t>迟缓光线暴击时，可额外【追加】一次【迟缓光线】。</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1288,7 +1346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1458,46 +1516,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="着色 2" xfId="1" builtinId="33"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1716,6 +1746,23 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1767,6 +1814,23 @@
           <color theme="0"/>
         </left>
         <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
         <top style="thin">
           <color theme="0"/>
         </top>
@@ -1871,8 +1935,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AI44" totalsRowShown="0">
-  <autoFilter ref="C1:AI44" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表5" displayName="表5" ref="C1:AI43" totalsRowShown="0">
+  <autoFilter ref="C1:AI43" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="33">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="技能ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="技能等级"/>
@@ -1881,13 +1945,13 @@
     <tableColumn id="12" xr3:uid="{340EC723-F09B-441E-90F7-4982DAB6794F}" name="技能范围说明" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="技能描述"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="随机移动" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="技能类型" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="技能图标"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ACT条动作"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="ACT特效表现" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="ACT特效表现2" dataDxfId="10"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="目标指向的_x000a_表现类型"/>
-    <tableColumn id="14" xr3:uid="{C4660449-B649-4843-96DC-74E15583A591}" name="行动速度描述" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{C4660449-B649-4843-96DC-74E15583A591}" name="行动速度描述" dataDxfId="9"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="ACT条速度"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="ACT秒">
       <calculatedColumnFormula>1/表5[[#This Row],[ACT条速度]]</calculatedColumnFormula>
@@ -1898,15 +1962,15 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="回转CD"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="次数限制"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="出手范围"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型" dataDxfId="10"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型" dataDxfId="9"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽" dataDxfId="7"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型" dataDxfId="6"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{38A6B9BF-6A56-4492-BBB6-895B66A226AC}" name="技能的触发器" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{87AEEB19-24D2-45FD-9242-5C494EC60E64}" name="触发器条件关系" dataDxfId="2"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="主目标类型" dataDxfId="8"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="技能_x000a_发起类型" dataDxfId="7"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="技能范围长" dataDxfId="6"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="技能范围宽" dataDxfId="5"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="主目标_x000a_范围类型" dataDxfId="4"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="作用对象_x000a_技能范围内" dataDxfId="3"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="技能表现" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{38A6B9BF-6A56-4492-BBB6-895B66A226AC}" name="技能的触发器" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{87AEEB19-24D2-45FD-9242-5C494EC60E64}" name="触发器条件关系" dataDxfId="0"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="引导技能_x000a_跳数"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="引导技能_x000a_间隔"/>
   </tableColumns>
@@ -2172,14 +2236,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI44"/>
+  <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="U10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W29"/>
+      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2229,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H1" s="26" t="s">
         <v>6</v>
@@ -2247,16 +2311,16 @@
         <v>9</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="Q1" s="17" t="s">
         <v>12</v>
@@ -2268,7 +2332,7 @@
         <v>14</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>15</v>
@@ -2301,13 +2365,13 @@
         <v>24</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="AG1" s="46" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AH1" s="41" t="s">
         <v>25</v>
@@ -2328,241 +2392,241 @@
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>32</v>
+        <v>131</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="U2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y2" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF2" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z2" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA2" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB2" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC2" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD2" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF2" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG2" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AI2" s="42" t="s">
         <v>38</v>
-      </c>
-      <c r="AI2" s="42" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="P3" s="12" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="R3" s="12"/>
       <c r="S3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="39" t="s">
+      <c r="U3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="39" t="s">
+      <c r="X3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Y3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>60</v>
-      </c>
       <c r="AE3" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF3" s="45" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="AG3" s="45" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>66</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>67</v>
       </c>
       <c r="R4" s="12"/>
       <c r="S4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="39" t="s">
         <v>68</v>
-      </c>
-      <c r="T4" s="39" t="s">
-        <v>69</v>
       </c>
       <c r="U4" s="18" t="s">
         <v>15</v>
@@ -2574,41 +2638,41 @@
         <v>17</v>
       </c>
       <c r="X4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="Y4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>76</v>
-      </c>
       <c r="AE4" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF4" s="45" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="AG4" s="48" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="AH4" s="21"/>
       <c r="AI4" s="21"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -2646,96 +2710,96 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="L6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W6" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="Y6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Z6" s="12" t="s">
+      <c r="AB6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AA6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="AC6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE6" s="21" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="AF6" s="45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AG6" s="21" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AH6" s="21"/>
       <c r="AI6" s="21"/>
@@ -2744,7 +2808,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="51" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F7" s="23"/>
       <c r="G7" s="24"/>
@@ -2793,7 +2857,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="52" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="29"/>
@@ -2846,43 +2910,43 @@
         <v>1</v>
       </c>
       <c r="E9" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1</v>
-      </c>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>84</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
       <c r="O9" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="13">
-        <v>10</v>
-      </c>
-      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S9" s="13">
         <v>200</v>
@@ -2900,7 +2964,7 @@
         <v>1</v>
       </c>
       <c r="X9" s="13">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="Y9" s="19">
         <v>3</v>
@@ -2937,13 +3001,13 @@
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="27" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -2952,27 +3016,27 @@
         <v>2</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>2</v>
-      </c>
-      <c r="R10" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S10" s="14">
         <v>300</v>
@@ -3027,13 +3091,13 @@
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="23" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -3042,27 +3106,27 @@
         <v>2</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N11" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O11" s="33"/>
       <c r="P11" s="23" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="13">
-        <v>1</v>
-      </c>
-      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S11" s="13">
         <v>400</v>
@@ -3080,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="X11" s="13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y11" s="19">
         <v>3</v>
@@ -3089,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="AA11" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB11" s="13">
         <v>0</v>
@@ -3117,13 +3181,13 @@
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="27" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3132,20 +3196,20 @@
         <v>3</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O12" s="34"/>
       <c r="P12" s="27" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q12" s="14">
         <v>10</v>
@@ -3155,7 +3219,7 @@
         <v>0.1</v>
       </c>
       <c r="S12" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T12" s="14">
         <v>0</v>
@@ -3170,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="X12" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y12" s="14">
         <v>3</v>
@@ -3206,43 +3270,43 @@
         <v>1</v>
       </c>
       <c r="E13" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="13">
-        <v>1</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>90</v>
-      </c>
       <c r="L13" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="13">
-        <v>10</v>
-      </c>
-      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S13" s="13">
         <v>200</v>
@@ -3260,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="X13" s="13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="19">
         <v>3</v>
@@ -3281,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="AE13" s="22" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
@@ -3296,14 +3360,14 @@
         <v>1</v>
       </c>
       <c r="E14" s="54"/>
-      <c r="F14" s="14" t="s">
-        <v>135</v>
+      <c r="F14" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="I14" s="14">
         <v>0</v>
@@ -3312,29 +3376,29 @@
         <v>2</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P14" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>2</v>
-      </c>
-      <c r="R14" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S14" s="14">
         <v>300</v>
@@ -3346,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="14">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="W14" s="14">
         <v>1</v>
       </c>
       <c r="X14" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="14">
         <v>3</v>
@@ -3388,14 +3452,14 @@
         <v>1</v>
       </c>
       <c r="E15" s="53"/>
-      <c r="F15" s="13" t="s">
-        <v>137</v>
+      <c r="F15" s="23" t="s">
+        <v>198</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -3404,29 +3468,29 @@
         <v>2</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M15" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O15" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P15" s="23" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="Q15" s="13">
-        <v>1</v>
-      </c>
-      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S15" s="13">
         <v>400</v>
@@ -3444,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="X15" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="19">
         <v>3</v>
@@ -3481,13 +3545,13 @@
       </c>
       <c r="E16" s="54"/>
       <c r="F16" s="14" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="I16" s="14">
         <v>0</v>
@@ -3496,22 +3560,22 @@
         <v>3</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O16" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P16" s="27" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="14">
         <v>10</v>
@@ -3521,7 +3585,7 @@
         <v>0.1</v>
       </c>
       <c r="S16" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T16" s="14">
         <v>0</v>
@@ -3536,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="X16" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="14">
         <v>3</v>
@@ -3572,41 +3636,41 @@
         <v>1</v>
       </c>
       <c r="E17" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <v>1</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="L17" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="23" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="13">
-        <v>10</v>
-      </c>
-      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S17" s="13">
         <v>200</v>
@@ -3660,14 +3724,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="54"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="H18" s="29" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="I18" s="14">
         <v>0</v>
@@ -3676,27 +3740,27 @@
         <v>2</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N18" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O18" s="33"/>
       <c r="P18" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q18" s="14">
-        <v>2</v>
-      </c>
-      <c r="R18" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S18" s="14">
         <v>350</v>
@@ -3750,14 +3814,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="53"/>
-      <c r="F19" s="13" t="s">
-        <v>137</v>
+      <c r="F19" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="I19" s="13">
         <v>0</v>
@@ -3766,27 +3830,27 @@
         <v>2</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M19" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N19" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N19" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O19" s="33"/>
       <c r="P19" s="23" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="13">
-        <v>1</v>
-      </c>
-      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S19" s="13">
         <v>450</v>
@@ -3798,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="13">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="W19" s="13">
         <v>1</v>
@@ -3840,14 +3904,14 @@
         <v>1</v>
       </c>
       <c r="E20" s="54"/>
-      <c r="F20" s="14" t="s">
-        <v>133</v>
+      <c r="F20" s="27" t="s">
+        <v>203</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="I20" s="14">
         <v>0</v>
@@ -3856,20 +3920,20 @@
         <v>3</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N20" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N20" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O20" s="34"/>
       <c r="P20" s="27" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q20" s="14">
         <v>10</v>
@@ -3879,7 +3943,7 @@
         <v>0.1</v>
       </c>
       <c r="S20" s="14">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="T20" s="14">
         <v>0</v>
@@ -3923,23 +3987,23 @@
       <c r="AI20" s="14"/>
     </row>
     <row r="21" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C21" s="8">
+      <c r="C21" s="57">
         <v>104001</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
@@ -3948,16 +4012,16 @@
         <v>1</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="23" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="Q21" s="13">
         <v>10</v>
@@ -4011,21 +4075,21 @@
       <c r="AI21" s="13"/>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C22" s="9">
+      <c r="C22" s="58">
         <v>104002</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
       </c>
       <c r="E22" s="54"/>
-      <c r="F22" s="14" t="s">
-        <v>135</v>
+      <c r="F22" s="27" t="s">
+        <v>191</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I22" s="14">
         <v>0</v>
@@ -4034,27 +4098,27 @@
         <v>2</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N22" s="33" t="s">
         <v>122</v>
-      </c>
-      <c r="N22" s="33" t="s">
-        <v>123</v>
       </c>
       <c r="O22" s="33"/>
       <c r="P22" s="27" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="14">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="R22" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="S22" s="14">
         <v>300</v>
@@ -4066,13 +4130,13 @@
         <v>0</v>
       </c>
       <c r="V22" s="14">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="W22" s="14">
         <v>1</v>
       </c>
       <c r="X22" s="14">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Y22" s="14">
         <v>3</v>
@@ -4081,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="AA22" s="14">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB22" s="14">
         <v>0</v>
@@ -4102,52 +4166,52 @@
     </row>
     <row r="23" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C23" s="8">
-        <v>104003</v>
+        <v>105001</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="53"/>
+      <c r="E23" s="51" t="s">
+        <v>148</v>
+      </c>
       <c r="F23" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="G23" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>150</v>
-      </c>
       <c r="I23" s="13">
         <v>0</v>
       </c>
       <c r="J23" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O23" s="33"/>
       <c r="P23" s="23" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="Q23" s="13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R23" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="S23" s="13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T23" s="13">
         <v>0</v>
@@ -4156,13 +4220,13 @@
         <v>0</v>
       </c>
       <c r="V23" s="13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="W23" s="13">
         <v>1</v>
       </c>
       <c r="X23" s="13">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Y23" s="19">
         <v>3</v>
@@ -4171,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="AA23" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB23" s="13">
         <v>0</v>
@@ -4180,10 +4244,10 @@
         <v>1</v>
       </c>
       <c r="AD23" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" s="13">
-        <v>4002</v>
+        <v>5001</v>
       </c>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
@@ -4192,49 +4256,47 @@
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
-        <v>104004</v>
+        <v>105002</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
       </c>
       <c r="E24" s="54"/>
       <c r="F24" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="I24" s="14">
         <v>0</v>
       </c>
       <c r="J24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="34"/>
       <c r="P24" s="27" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="Q24" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="R24" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="R24" s="14">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S24" s="14">
         <v>0</v>
@@ -4246,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="V24" s="14">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="W24" s="14">
         <v>1</v>
       </c>
       <c r="X24" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="Y24" s="14">
         <v>3</v>
@@ -4261,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="AA24" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="14">
         <v>0</v>
@@ -4273,7 +4335,7 @@
         <v>5</v>
       </c>
       <c r="AE24" s="13">
-        <v>4002</v>
+        <v>5002</v>
       </c>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
@@ -4282,22 +4344,22 @@
     </row>
     <row r="25" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C25" s="8">
-        <v>105001</v>
+        <v>106001</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
       </c>
-      <c r="E25" s="51" t="s">
-        <v>160</v>
+      <c r="E25" s="53" t="s">
+        <v>102</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I25" s="13">
         <v>0</v>
@@ -4306,18 +4368,18 @@
         <v>1</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
       <c r="O25" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="13">
         <v>2</v>
@@ -4342,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="X25" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="19">
         <v>3</v>
@@ -4372,20 +4434,20 @@
     </row>
     <row r="26" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
-        <v>105002</v>
+        <v>106002</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
       </c>
       <c r="E26" s="54"/>
       <c r="F26" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I26" s="14">
         <v>0</v>
@@ -4394,23 +4456,23 @@
         <v>2</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
       <c r="O26" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="Q26" s="14">
         <v>0.5</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
         <v>2</v>
       </c>
@@ -4430,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="X26" s="14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="14">
         <v>3</v>
@@ -4460,22 +4522,22 @@
     </row>
     <row r="27" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C27" s="8">
-        <v>106001</v>
+        <v>107001</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E27" s="53" t="s">
-        <v>103</v>
+      <c r="E27" s="51" t="s">
+        <v>149</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I27" s="13">
         <v>0</v>
@@ -4484,18 +4546,18 @@
         <v>1</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="13">
         <v>2</v>
@@ -4520,7 +4582,7 @@
         <v>1</v>
       </c>
       <c r="X27" s="13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Y27" s="19">
         <v>3</v>
@@ -4541,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="AE27" s="13">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
@@ -4550,20 +4612,20 @@
     </row>
     <row r="28" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
-        <v>106002</v>
+        <v>107002</v>
       </c>
       <c r="D28" s="9">
         <v>1</v>
       </c>
       <c r="E28" s="54"/>
       <c r="F28" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I28" s="14">
         <v>0</v>
@@ -4572,25 +4634,29 @@
         <v>2</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="L28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33" t="s">
-        <v>85</v>
-      </c>
       <c r="P28" s="27" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="Q28" s="14">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R28" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S28" s="14">
         <v>0</v>
@@ -4602,13 +4668,13 @@
         <v>0</v>
       </c>
       <c r="V28" s="14">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W28" s="14">
         <v>1</v>
       </c>
       <c r="X28" s="14">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="Y28" s="14">
         <v>3</v>
@@ -4617,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="AA28" s="14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB28" s="14">
         <v>0</v>
@@ -4629,7 +4695,7 @@
         <v>5</v>
       </c>
       <c r="AE28" s="13">
-        <v>5002</v>
+        <v>6002</v>
       </c>
       <c r="AF28" s="13"/>
       <c r="AG28" s="13"/>
@@ -4637,23 +4703,23 @@
       <c r="AI28" s="14"/>
     </row>
     <row r="29" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C29" s="8">
-        <v>107001</v>
+      <c r="C29" s="7">
+        <v>108001</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
-      <c r="E29" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>131</v>
+      <c r="E29" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="I29" s="13">
         <v>0</v>
@@ -4662,28 +4728,26 @@
         <v>1</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
-      <c r="O29" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="O29" s="33"/>
       <c r="P29" s="23" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="13">
-        <v>2</v>
-      </c>
-      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S29" s="13">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T29" s="13">
         <v>0</v>
@@ -4698,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="X29" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y29" s="19">
         <v>3</v>
@@ -4719,7 +4783,7 @@
         <v>1</v>
       </c>
       <c r="AE29" s="13">
-        <v>6001</v>
+        <v>8001</v>
       </c>
       <c r="AF29" s="13"/>
       <c r="AG29" s="13"/>
@@ -4727,21 +4791,21 @@
       <c r="AI29" s="13"/>
     </row>
     <row r="30" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C30" s="9">
-        <v>107002</v>
+      <c r="C30" s="49">
+        <v>108002</v>
       </c>
       <c r="D30" s="9">
         <v>1</v>
       </c>
       <c r="E30" s="54"/>
-      <c r="F30" s="14" t="s">
-        <v>135</v>
+      <c r="F30" s="27" t="s">
+        <v>205</v>
       </c>
       <c r="G30" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>145</v>
+        <v>134</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>237</v>
       </c>
       <c r="I30" s="14">
         <v>0</v>
@@ -4750,32 +4814,30 @@
         <v>2</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N30" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="N30" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O30" s="33" t="s">
-        <v>85</v>
-      </c>
+      <c r="O30" s="33"/>
       <c r="P30" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q30" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="R30" s="13">
+        <v>180</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="13" t="e">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>5</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="S30" s="14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="T30" s="14">
         <v>0</v>
@@ -4790,7 +4852,7 @@
         <v>1</v>
       </c>
       <c r="X30" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y30" s="14">
         <v>3</v>
@@ -4799,7 +4861,7 @@
         <v>2</v>
       </c>
       <c r="AA30" s="14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AB30" s="14">
         <v>0</v>
@@ -4811,7 +4873,7 @@
         <v>5</v>
       </c>
       <c r="AE30" s="13">
-        <v>6002</v>
+        <v>8002</v>
       </c>
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
@@ -4820,74 +4882,76 @@
     </row>
     <row r="31" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C31" s="7">
-        <v>108001</v>
+        <v>108003</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
       </c>
-      <c r="E31" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>131</v>
+      <c r="E31" s="53"/>
+      <c r="F31" s="23" t="s">
+        <v>206</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="O31" s="33"/>
       <c r="P31" s="23" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13" t="e">
+        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" s="13">
+        <v>400</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="13">
+        <v>0</v>
+      </c>
+      <c r="V31" s="13">
+        <v>30</v>
+      </c>
+      <c r="W31" s="13">
+        <v>1</v>
+      </c>
+      <c r="X31" s="13">
         <v>10</v>
       </c>
-      <c r="R31" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="S31" s="13">
-        <v>200</v>
-      </c>
-      <c r="T31" s="13">
-        <v>0</v>
-      </c>
-      <c r="U31" s="13">
-        <v>0</v>
-      </c>
-      <c r="V31" s="13">
-        <v>2</v>
-      </c>
-      <c r="W31" s="13">
-        <v>1</v>
-      </c>
-      <c r="X31" s="13">
-        <v>3.5</v>
-      </c>
       <c r="Y31" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z31" s="13">
         <v>2</v>
       </c>
       <c r="AA31" s="13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB31" s="13">
         <v>0</v>
@@ -4899,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AE31" s="13">
-        <v>8001</v>
+        <v>8003</v>
       </c>
       <c r="AF31" s="13"/>
       <c r="AG31" s="13"/>
@@ -4908,52 +4972,52 @@
     </row>
     <row r="32" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C32" s="49">
-        <v>108002</v>
+        <v>108004</v>
       </c>
       <c r="D32" s="9">
         <v>1</v>
       </c>
       <c r="E32" s="54"/>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="27" t="s">
-        <v>142</v>
-      </c>
       <c r="H32" s="29" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="I32" s="14">
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M32" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="N32" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O32" s="33"/>
+      <c r="O32" s="34"/>
       <c r="P32" s="27" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="Q32" s="14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R32" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="S32" s="14">
-        <v>300</v>
+        <v>-1000</v>
       </c>
       <c r="T32" s="14">
         <v>0</v>
@@ -4962,13 +5026,13 @@
         <v>0</v>
       </c>
       <c r="V32" s="14">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="W32" s="14">
         <v>1</v>
       </c>
       <c r="X32" s="14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y32" s="14">
         <v>3</v>
@@ -4989,7 +5053,7 @@
         <v>5</v>
       </c>
       <c r="AE32" s="13">
-        <v>8002</v>
+        <v>8005</v>
       </c>
       <c r="AF32" s="13"/>
       <c r="AG32" s="13"/>
@@ -4997,256 +5061,245 @@
       <c r="AI32" s="14"/>
     </row>
     <row r="33" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C33" s="7">
-        <v>108003</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="13" t="s">
-        <v>137</v>
+      <c r="C33" s="2">
+        <v>109001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>142</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I33" s="13">
-        <v>0</v>
-      </c>
-      <c r="J33" s="13">
-        <v>2</v>
+        <v>144</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N33" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="36"/>
       <c r="P33" s="23" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="Q33" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>1</v>
-      </c>
-      <c r="S33" s="13">
-        <v>400</v>
-      </c>
-      <c r="T33" s="13">
-        <v>0</v>
-      </c>
-      <c r="U33" s="13">
-        <v>0</v>
-      </c>
-      <c r="V33" s="13">
-        <v>30</v>
-      </c>
-      <c r="W33" s="13">
-        <v>1</v>
-      </c>
-      <c r="X33" s="13">
-        <v>10</v>
-      </c>
-      <c r="Y33" s="19">
-        <v>2</v>
-      </c>
-      <c r="Z33" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="13">
         <v>0.5</v>
       </c>
-      <c r="AB33" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="13">
-        <v>8003</v>
-      </c>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
+      <c r="S33" s="2">
+        <v>200</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="2">
+        <v>0</v>
+      </c>
+      <c r="V33" s="2">
+        <v>3</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1</v>
+      </c>
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="30">
+        <v>9001</v>
+      </c>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
     </row>
     <row r="34" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C34" s="49">
-        <v>108004</v>
-      </c>
-      <c r="D34" s="9">
-        <v>1</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="14" t="s">
-        <v>133</v>
+      <c r="C34" s="2">
+        <v>109002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="32" t="s">
+        <v>143</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="14">
-        <v>0</v>
-      </c>
-      <c r="J34" s="14">
-        <v>3</v>
+        <v>136</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="M34" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O34" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O34" s="36"/>
       <c r="P34" s="27" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="Q34" s="14">
-        <v>10</v>
+        <v>0.25</v>
       </c>
       <c r="R34" s="13">
         <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>0.1</v>
-      </c>
-      <c r="S34" s="14">
-        <v>0</v>
-      </c>
-      <c r="T34" s="14">
-        <v>0</v>
-      </c>
-      <c r="U34" s="14">
-        <v>0</v>
-      </c>
-      <c r="V34" s="14">
+        <v>4</v>
+      </c>
+      <c r="S34" s="2">
+        <v>300</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>20</v>
+      </c>
+      <c r="W34" s="2">
+        <v>1</v>
+      </c>
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="2">
         <v>5</v>
       </c>
-      <c r="W34" s="14">
-        <v>1</v>
-      </c>
-      <c r="X34" s="14">
-        <v>8</v>
-      </c>
-      <c r="Y34" s="14">
-        <v>3</v>
-      </c>
-      <c r="Z34" s="14">
-        <v>2</v>
-      </c>
-      <c r="AA34" s="14">
-        <v>5</v>
-      </c>
-      <c r="AB34" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="14">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="14">
-        <v>5</v>
-      </c>
-      <c r="AE34" s="13">
-        <v>8005</v>
-      </c>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
+      <c r="AE34" s="30">
+        <v>9002</v>
+      </c>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
     </row>
     <row r="35" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C35" s="2">
-        <v>109001</v>
+        <v>109003</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>154</v>
+        <v>223</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="I35" s="2">
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L35" s="32" t="s">
-        <v>159</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="L35" s="32"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
       <c r="O35" s="36"/>
       <c r="P35" s="23" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q35" s="13">
-        <v>2</v>
-      </c>
-      <c r="R35" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="13"/>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>1</v>
+      </c>
+      <c r="X35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="2">
         <v>0.5</v>
       </c>
-      <c r="S35" s="2">
-        <v>0</v>
-      </c>
-      <c r="T35" s="2">
-        <v>0</v>
-      </c>
-      <c r="U35" s="2">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>3</v>
-      </c>
-      <c r="W35" s="2">
-        <v>1</v>
-      </c>
-      <c r="X35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>1</v>
-      </c>
       <c r="AB35" s="2">
         <v>0</v>
       </c>
@@ -5254,124 +5307,115 @@
         <v>1</v>
       </c>
       <c r="AD35" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AE35" s="30">
-        <v>9001</v>
+        <v>9003</v>
       </c>
       <c r="AF35" s="30"/>
       <c r="AG35" s="30"/>
     </row>
     <row r="36" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C36" s="2">
-        <v>109002</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="M36" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="N36" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O36" s="36"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="R36" s="13">
-        <f>1/表5[[#This Row],[ACT条速度]]</f>
-        <v>5</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>30</v>
-      </c>
-      <c r="W36" s="2">
-        <v>1</v>
-      </c>
-      <c r="X36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2">
+      <c r="C36" s="31">
+        <v>201011</v>
+      </c>
+      <c r="D36" s="31">
+        <v>1</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H36" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="I36" s="31">
+        <v>0</v>
+      </c>
+      <c r="J36" s="31">
+        <v>4</v>
+      </c>
+      <c r="K36" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="31"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31">
+        <v>0</v>
+      </c>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31">
+        <v>0</v>
+      </c>
+      <c r="W36" s="31">
+        <v>99</v>
+      </c>
+      <c r="X36" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="31">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="31">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="31">
         <v>3</v>
       </c>
-      <c r="Z36" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="2">
-        <v>5</v>
-      </c>
-      <c r="AE36" s="30">
-        <v>9002</v>
-      </c>
-      <c r="AF36" s="30"/>
-      <c r="AG36" s="30"/>
+      <c r="AB36" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="31">
+        <v>2</v>
+      </c>
+      <c r="AE36" s="23">
+        <v>21011</v>
+      </c>
+      <c r="AF36" s="23">
+        <v>310401</v>
+      </c>
+      <c r="AG36" s="23"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="31"/>
     </row>
     <row r="37" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C37" s="31">
-        <v>201011</v>
+        <v>201012</v>
       </c>
       <c r="D37" s="31">
         <v>1</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="G37" s="43" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="H37" s="50" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="I37" s="31">
         <v>0</v>
       </c>
       <c r="J37" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K37" s="31" t="s">
         <v>86</v>
@@ -5398,13 +5442,13 @@
         <v>0</v>
       </c>
       <c r="Y37" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z37" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA37" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="31">
         <v>0</v>
@@ -5413,43 +5457,45 @@
         <v>1</v>
       </c>
       <c r="AD37" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE37" s="23">
-        <v>21011</v>
-      </c>
-      <c r="AF37" s="23"/>
+        <v>21012</v>
+      </c>
+      <c r="AF37" s="23">
+        <v>400401</v>
+      </c>
       <c r="AG37" s="23"/>
       <c r="AH37" s="31"/>
       <c r="AI37" s="31"/>
     </row>
     <row r="38" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C38" s="31">
-        <v>201012</v>
+        <v>202011</v>
       </c>
       <c r="D38" s="31">
         <v>1</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="G38" s="43" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="I38" s="31">
         <v>0</v>
       </c>
       <c r="J38" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K38" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="23"/>
@@ -5479,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="AA38" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="31">
         <v>0</v>
@@ -5488,40 +5534,42 @@
         <v>1</v>
       </c>
       <c r="AD38" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE38" s="23">
-        <v>21012</v>
-      </c>
-      <c r="AF38" s="23"/>
+        <v>22011</v>
+      </c>
+      <c r="AF38" s="23">
+        <v>320401</v>
+      </c>
       <c r="AG38" s="23"/>
       <c r="AH38" s="31"/>
       <c r="AI38" s="31"/>
     </row>
     <row r="39" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C39" s="31">
-        <v>202011</v>
+        <v>202012</v>
       </c>
       <c r="D39" s="31">
         <v>1</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G39" s="43" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="I39" s="31">
         <v>0</v>
       </c>
       <c r="J39" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K39" s="31" t="s">
         <v>91</v>
@@ -5548,13 +5596,13 @@
         <v>0</v>
       </c>
       <c r="Y39" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z39" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA39" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB39" s="31">
         <v>0</v>
@@ -5566,40 +5614,42 @@
         <v>5</v>
       </c>
       <c r="AE39" s="23">
-        <v>22011</v>
-      </c>
-      <c r="AF39" s="23"/>
+        <v>22012</v>
+      </c>
+      <c r="AF39" s="23">
+        <v>310501</v>
+      </c>
       <c r="AG39" s="23"/>
       <c r="AH39" s="31"/>
       <c r="AI39" s="31"/>
     </row>
     <row r="40" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C40" s="31">
-        <v>202012</v>
+        <v>203011</v>
       </c>
       <c r="D40" s="31">
         <v>1</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="H40" s="50" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="I40" s="31">
         <v>0</v>
       </c>
       <c r="J40" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K40" s="31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="23"/>
@@ -5623,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="Y40" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z40" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA40" s="31">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AB40" s="31">
         <v>0</v>
@@ -5638,40 +5688,42 @@
         <v>1</v>
       </c>
       <c r="AD40" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE40" s="23">
-        <v>22012</v>
-      </c>
-      <c r="AF40" s="23"/>
+        <v>23011</v>
+      </c>
+      <c r="AF40" s="23">
+        <v>400101</v>
+      </c>
       <c r="AG40" s="23"/>
       <c r="AH40" s="31"/>
       <c r="AI40" s="31"/>
     </row>
     <row r="41" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C41" s="31">
-        <v>203011</v>
+        <v>203012</v>
       </c>
       <c r="D41" s="31">
         <v>1</v>
       </c>
-      <c r="E41" s="50" t="s">
-        <v>220</v>
+      <c r="E41" s="43" t="s">
+        <v>184</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="H41" s="50" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="I41" s="31">
         <v>0</v>
       </c>
       <c r="J41" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K41" s="31" t="s">
         <v>96</v>
@@ -5698,13 +5750,13 @@
         <v>0</v>
       </c>
       <c r="Y41" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z41" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA41" s="31">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="AB41" s="31">
         <v>0</v>
@@ -5713,49 +5765,51 @@
         <v>1</v>
       </c>
       <c r="AD41" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE41" s="23">
-        <v>23011</v>
-      </c>
-      <c r="AF41" s="23"/>
+        <v>23012</v>
+      </c>
+      <c r="AF41" s="23">
+        <v>310501</v>
+      </c>
       <c r="AG41" s="23"/>
       <c r="AH41" s="31"/>
       <c r="AI41" s="31"/>
     </row>
     <row r="42" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C42" s="31">
-        <v>203012</v>
+        <v>208011</v>
       </c>
       <c r="D42" s="31">
         <v>1</v>
       </c>
-      <c r="E42" s="43" t="s">
-        <v>221</v>
+      <c r="E42" s="50" t="s">
+        <v>189</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I42" s="31">
         <v>0</v>
       </c>
       <c r="J42" s="31">
-        <v>5</v>
-      </c>
-      <c r="K42" s="31" t="s">
-        <v>97</v>
+        <v>4</v>
+      </c>
+      <c r="K42" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
       <c r="O42" s="31"/>
-      <c r="P42" s="43"/>
+      <c r="P42" s="31"/>
       <c r="Q42" s="31"/>
       <c r="R42" s="31"/>
       <c r="S42" s="31">
@@ -5773,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="Y42" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z42" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA42" s="31">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="AB42" s="31">
         <v>0</v>
@@ -5788,42 +5842,44 @@
         <v>1</v>
       </c>
       <c r="AD42" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE42" s="23">
-        <v>23012</v>
-      </c>
-      <c r="AF42" s="23"/>
+        <v>28011</v>
+      </c>
+      <c r="AF42" s="23">
+        <v>310101</v>
+      </c>
       <c r="AG42" s="23"/>
       <c r="AH42" s="31"/>
       <c r="AI42" s="31"/>
     </row>
     <row r="43" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C43" s="31">
-        <v>208011</v>
+        <v>208012</v>
       </c>
       <c r="D43" s="31">
         <v>1</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="H43" s="50" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="I43" s="31">
         <v>0</v>
       </c>
       <c r="J43" s="31">
-        <v>5</v>
-      </c>
-      <c r="K43" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>100</v>
       </c>
       <c r="L43" s="31"/>
@@ -5866,87 +5922,14 @@
         <v>6</v>
       </c>
       <c r="AE43" s="23">
-        <v>28011</v>
-      </c>
-      <c r="AF43" s="23"/>
+        <v>28012</v>
+      </c>
+      <c r="AF43" s="23">
+        <v>310501</v>
+      </c>
       <c r="AG43" s="23"/>
       <c r="AH43" s="31"/>
       <c r="AI43" s="31"/>
-    </row>
-    <row r="44" spans="3:35" x14ac:dyDescent="0.2">
-      <c r="C44" s="31">
-        <v>208012</v>
-      </c>
-      <c r="D44" s="31">
-        <v>1</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="H44" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="I44" s="31">
-        <v>0</v>
-      </c>
-      <c r="J44" s="31">
-        <v>5</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31">
-        <v>0</v>
-      </c>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31">
-        <v>0</v>
-      </c>
-      <c r="W44" s="31">
-        <v>99</v>
-      </c>
-      <c r="X44" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="31">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="31">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="31">
-        <v>0.5</v>
-      </c>
-      <c r="AB44" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="31">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="31">
-        <v>6</v>
-      </c>
-      <c r="AE44" s="23">
-        <v>28012</v>
-      </c>
-      <c r="AF44" s="23"/>
-      <c r="AG44" s="23"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
